--- a/Case3_Results.xlsx
+++ b/Case3_Results.xlsx
@@ -20356,10 +20356,10 @@
         <v>1.1</v>
       </c>
       <c r="E487">
-        <v>28.8421052631579</v>
+        <v>27.2</v>
       </c>
       <c r="F487">
-        <v>1.931888544891645</v>
+        <v>0</v>
       </c>
       <c r="G487">
         <v>0</v>
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
       <c r="K487">
-        <v>26.23730521155831</v>
+        <v>24.30541666666667</v>
       </c>
       <c r="L487">
         <v>0</v>
@@ -20397,7 +20397,7 @@
         <v>0.75</v>
       </c>
       <c r="E488">
-        <v>28.8421052631579</v>
+        <v>27.2</v>
       </c>
       <c r="F488">
         <v>0</v>
@@ -20438,7 +20438,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="E489">
-        <v>28.8421052631579</v>
+        <v>27.2</v>
       </c>
       <c r="F489">
         <v>0</v>
@@ -20479,7 +20479,7 @@
         <v>0.8250000000000001</v>
       </c>
       <c r="E490">
-        <v>28.8421052631579</v>
+        <v>27.2</v>
       </c>
       <c r="F490">
         <v>0</v>
@@ -20520,7 +20520,7 @@
         <v>1.25</v>
       </c>
       <c r="E491">
-        <v>28.8421052631579</v>
+        <v>27.2</v>
       </c>
       <c r="F491">
         <v>0</v>
@@ -20561,7 +20561,7 @@
         <v>1.35</v>
       </c>
       <c r="E492">
-        <v>28.8421052631579</v>
+        <v>27.2</v>
       </c>
       <c r="F492">
         <v>0</v>
@@ -20602,13 +20602,13 @@
         <v>2.025</v>
       </c>
       <c r="E493">
-        <v>28.8421052631579</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="F493">
         <v>0</v>
       </c>
       <c r="G493">
-        <v>0</v>
+        <v>9.840000000000002</v>
       </c>
       <c r="H493">
         <v>0</v>
@@ -20620,7 +20620,7 @@
         <v>0</v>
       </c>
       <c r="K493">
-        <v>48.92875</v>
+        <v>39.08875</v>
       </c>
       <c r="L493">
         <v>0</v>
@@ -20643,7 +20643,7 @@
         <v>2.75</v>
       </c>
       <c r="E494">
-        <v>28.8421052631579</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="F494">
         <v>0</v>
@@ -20684,7 +20684,7 @@
         <v>3.975</v>
       </c>
       <c r="E495">
-        <v>28.8421052631579</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="F495">
         <v>0</v>
@@ -20725,7 +20725,7 @@
         <v>4.55</v>
       </c>
       <c r="E496">
-        <v>28.8421052631579</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="F496">
         <v>0</v>
@@ -20766,7 +20766,7 @@
         <v>6.225</v>
       </c>
       <c r="E497">
-        <v>28.8421052631579</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="F497">
         <v>0</v>
@@ -20807,7 +20807,7 @@
         <v>6.45</v>
       </c>
       <c r="E498">
-        <v>28.8421052631579</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="F498">
         <v>0</v>
@@ -20848,7 +20848,7 @@
         <v>7.425</v>
       </c>
       <c r="E499">
-        <v>28.8421052631579</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="F499">
         <v>0</v>
@@ -20889,7 +20889,7 @@
         <v>8.375</v>
       </c>
       <c r="E500">
-        <v>28.8421052631579</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="F500">
         <v>0</v>
@@ -20930,7 +20930,7 @@
         <v>9.375</v>
       </c>
       <c r="E501">
-        <v>28.8421052631579</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="F501">
         <v>0</v>
@@ -20971,7 +20971,7 @@
         <v>8.774999999999999</v>
       </c>
       <c r="E502">
-        <v>28.8421052631579</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="F502">
         <v>0</v>
@@ -21012,7 +21012,7 @@
         <v>8.1</v>
       </c>
       <c r="E503">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F503">
         <v>0</v>
@@ -21053,7 +21053,7 @@
         <v>7.3</v>
       </c>
       <c r="E504">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F504">
         <v>0</v>
@@ -21094,10 +21094,10 @@
         <v>6.1</v>
       </c>
       <c r="E505">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="F505">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G505">
         <v>0</v>
@@ -21112,7 +21112,7 @@
         <v>0</v>
       </c>
       <c r="K505">
-        <v>48.92416666666667</v>
+        <v>32.92416666666666</v>
       </c>
       <c r="L505">
         <v>0</v>
@@ -21135,10 +21135,10 @@
         <v>5.774999999999999</v>
       </c>
       <c r="E506">
-        <v>39.2</v>
+        <v>12</v>
       </c>
       <c r="F506">
-        <v>16</v>
+        <v>14.11764705882353</v>
       </c>
       <c r="G506">
         <v>0</v>
@@ -21153,7 +21153,7 @@
         <v>0</v>
       </c>
       <c r="K506">
-        <v>40.98791666666667</v>
+        <v>39.1055637254902</v>
       </c>
       <c r="L506">
         <v>0</v>
@@ -21176,7 +21176,7 @@
         <v>4.074999999999999</v>
       </c>
       <c r="E507">
-        <v>52.8</v>
+        <v>25.6</v>
       </c>
       <c r="F507">
         <v>16</v>
@@ -21217,7 +21217,7 @@
         <v>2.774999999999999</v>
       </c>
       <c r="E508">
-        <v>66.40000000000001</v>
+        <v>39.2</v>
       </c>
       <c r="F508">
         <v>16</v>
@@ -21258,7 +21258,7 @@
         <v>1.85</v>
       </c>
       <c r="E509">
-        <v>80</v>
+        <v>52.8</v>
       </c>
       <c r="F509">
         <v>16</v>
@@ -21299,31 +21299,31 @@
         <v>0.9249999999999999</v>
       </c>
       <c r="E510">
-        <v>63.15789473684211</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F510">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G510">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H510">
-        <v>55.02500000000001</v>
+        <v>83.97499999999999</v>
       </c>
       <c r="I510">
-        <v>0</v>
+        <v>28.025</v>
       </c>
       <c r="J510">
-        <v>0.9249999999999999</v>
+        <v>0</v>
       </c>
       <c r="K510">
-        <v>0</v>
+        <v>70.02166666666666</v>
       </c>
       <c r="L510">
-        <v>9.071666666666665</v>
+        <v>0</v>
       </c>
       <c r="M510">
-        <v>9071.666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:13">
@@ -21340,7 +21340,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="E511">
-        <v>76.7578947368421</v>
+        <v>80</v>
       </c>
       <c r="F511">
         <v>16</v>
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="H511">
-        <v>55.02500000000001</v>
+        <v>83.97499999999999</v>
       </c>
       <c r="I511">
         <v>0</v>
@@ -21381,7 +21381,7 @@
         <v>0.25</v>
       </c>
       <c r="E512">
-        <v>76.7578947368421</v>
+        <v>80</v>
       </c>
       <c r="F512">
         <v>0</v>
@@ -21390,7 +21390,7 @@
         <v>0</v>
       </c>
       <c r="H512">
-        <v>55.02500000000001</v>
+        <v>83.97499999999999</v>
       </c>
       <c r="I512">
         <v>0</v>
@@ -21422,7 +21422,7 @@
         <v>0.325</v>
       </c>
       <c r="E513">
-        <v>76.7578947368421</v>
+        <v>80</v>
       </c>
       <c r="F513">
         <v>0</v>
@@ -21431,7 +21431,7 @@
         <v>0</v>
       </c>
       <c r="H513">
-        <v>55.02500000000001</v>
+        <v>83.97499999999999</v>
       </c>
       <c r="I513">
         <v>0</v>
@@ -21463,7 +21463,7 @@
         <v>1.25</v>
       </c>
       <c r="E514">
-        <v>76.7578947368421</v>
+        <v>80</v>
       </c>
       <c r="F514">
         <v>0</v>
@@ -21472,7 +21472,7 @@
         <v>0</v>
       </c>
       <c r="H514">
-        <v>55.02500000000001</v>
+        <v>83.97499999999999</v>
       </c>
       <c r="I514">
         <v>0</v>
@@ -21504,7 +21504,7 @@
         <v>1.675</v>
       </c>
       <c r="E515">
-        <v>76.7578947368421</v>
+        <v>80</v>
       </c>
       <c r="F515">
         <v>0</v>
@@ -21513,7 +21513,7 @@
         <v>0</v>
       </c>
       <c r="H515">
-        <v>55.02500000000001</v>
+        <v>83.97499999999999</v>
       </c>
       <c r="I515">
         <v>0</v>
@@ -21545,7 +21545,7 @@
         <v>2.025</v>
       </c>
       <c r="E516">
-        <v>76.7578947368421</v>
+        <v>80</v>
       </c>
       <c r="F516">
         <v>0</v>
@@ -21554,7 +21554,7 @@
         <v>0</v>
       </c>
       <c r="H516">
-        <v>55.02500000000001</v>
+        <v>83.97499999999999</v>
       </c>
       <c r="I516">
         <v>0</v>
@@ -21586,7 +21586,7 @@
         <v>2.375</v>
       </c>
       <c r="E517">
-        <v>76.7578947368421</v>
+        <v>80</v>
       </c>
       <c r="F517">
         <v>0</v>
@@ -21595,7 +21595,7 @@
         <v>0</v>
       </c>
       <c r="H517">
-        <v>55.02500000000001</v>
+        <v>83.97499999999999</v>
       </c>
       <c r="I517">
         <v>0</v>
@@ -21627,7 +21627,7 @@
         <v>2.95</v>
       </c>
       <c r="E518">
-        <v>76.7578947368421</v>
+        <v>80</v>
       </c>
       <c r="F518">
         <v>0</v>
@@ -21636,7 +21636,7 @@
         <v>0</v>
       </c>
       <c r="H518">
-        <v>55.02500000000001</v>
+        <v>83.97499999999999</v>
       </c>
       <c r="I518">
         <v>0</v>
@@ -21674,10 +21674,10 @@
         <v>0</v>
       </c>
       <c r="G519">
-        <v>8.920000000000003</v>
+        <v>12</v>
       </c>
       <c r="H519">
-        <v>52</v>
+        <v>80.95</v>
       </c>
       <c r="I519">
         <v>0</v>
@@ -21686,7 +21686,7 @@
         <v>3.025</v>
       </c>
       <c r="K519">
-        <v>29.29958333333332</v>
+        <v>26.21958333333332</v>
       </c>
       <c r="L519">
         <v>0</v>
@@ -21718,7 +21718,7 @@
         <v>16</v>
       </c>
       <c r="H520">
-        <v>48.07500000000001</v>
+        <v>77.02499999999999</v>
       </c>
       <c r="I520">
         <v>0</v>
@@ -21759,7 +21759,7 @@
         <v>16</v>
       </c>
       <c r="H521">
-        <v>42.9</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="I521">
         <v>0</v>
@@ -21800,7 +21800,7 @@
         <v>16</v>
       </c>
       <c r="H522">
-        <v>34.12500000000001</v>
+        <v>63.075</v>
       </c>
       <c r="I522">
         <v>0</v>
@@ -21841,7 +21841,7 @@
         <v>16</v>
       </c>
       <c r="H523">
-        <v>25.42500000000001</v>
+        <v>54.375</v>
       </c>
       <c r="I523">
         <v>0</v>
@@ -21882,7 +21882,7 @@
         <v>0</v>
       </c>
       <c r="H524">
-        <v>17.52500000000001</v>
+        <v>46.475</v>
       </c>
       <c r="I524">
         <v>0</v>
@@ -21923,7 +21923,7 @@
         <v>0</v>
       </c>
       <c r="H525">
-        <v>17.52500000000001</v>
+        <v>46.475</v>
       </c>
       <c r="I525">
         <v>0</v>
@@ -21964,7 +21964,7 @@
         <v>0</v>
       </c>
       <c r="H526">
-        <v>17.52500000000001</v>
+        <v>46.475</v>
       </c>
       <c r="I526">
         <v>0</v>
@@ -22005,7 +22005,7 @@
         <v>0</v>
       </c>
       <c r="H527">
-        <v>17.52500000000001</v>
+        <v>46.475</v>
       </c>
       <c r="I527">
         <v>0</v>
@@ -22046,7 +22046,7 @@
         <v>0</v>
       </c>
       <c r="H528">
-        <v>17.52500000000001</v>
+        <v>46.475</v>
       </c>
       <c r="I528">
         <v>0</v>
@@ -22087,7 +22087,7 @@
         <v>0</v>
       </c>
       <c r="H529">
-        <v>17.52500000000001</v>
+        <v>46.475</v>
       </c>
       <c r="I529">
         <v>0</v>
@@ -22128,7 +22128,7 @@
         <v>0</v>
       </c>
       <c r="H530">
-        <v>42.49208333333335</v>
+        <v>71.44208333333334</v>
       </c>
       <c r="I530">
         <v>24.96708333333334</v>
@@ -22169,7 +22169,7 @@
         <v>0</v>
       </c>
       <c r="H531">
-        <v>70.16708333333335</v>
+        <v>99.11708333333334</v>
       </c>
       <c r="I531">
         <v>27.675</v>
@@ -22210,16 +22210,16 @@
         <v>0</v>
       </c>
       <c r="H532">
-        <v>92.29916666666665</v>
+        <v>99.11708333333334</v>
       </c>
       <c r="I532">
-        <v>22.1320833333333</v>
+        <v>0</v>
       </c>
       <c r="J532">
         <v>0</v>
       </c>
       <c r="K532">
-        <v>65.12041666666663</v>
+        <v>42.98833333333333</v>
       </c>
       <c r="L532">
         <v>0</v>
@@ -22251,7 +22251,7 @@
         <v>0</v>
       </c>
       <c r="H533">
-        <v>92.29916666666665</v>
+        <v>99.11708333333334</v>
       </c>
       <c r="I533">
         <v>0</v>
@@ -22292,7 +22292,7 @@
         <v>0</v>
       </c>
       <c r="H534">
-        <v>92.29916666666665</v>
+        <v>99.11708333333334</v>
       </c>
       <c r="I534">
         <v>0</v>
@@ -22333,7 +22333,7 @@
         <v>0</v>
       </c>
       <c r="H535">
-        <v>92.29916666666665</v>
+        <v>99.11708333333334</v>
       </c>
       <c r="I535">
         <v>0</v>
@@ -22374,7 +22374,7 @@
         <v>0</v>
       </c>
       <c r="H536">
-        <v>92.29916666666665</v>
+        <v>99.11708333333334</v>
       </c>
       <c r="I536">
         <v>0</v>
@@ -22415,7 +22415,7 @@
         <v>0</v>
       </c>
       <c r="H537">
-        <v>92.29916666666665</v>
+        <v>99.11708333333334</v>
       </c>
       <c r="I537">
         <v>0</v>
@@ -22456,7 +22456,7 @@
         <v>0</v>
       </c>
       <c r="H538">
-        <v>92.29916666666665</v>
+        <v>99.11708333333334</v>
       </c>
       <c r="I538">
         <v>0</v>
@@ -22497,7 +22497,7 @@
         <v>0</v>
       </c>
       <c r="H539">
-        <v>92.29916666666665</v>
+        <v>99.11708333333334</v>
       </c>
       <c r="I539">
         <v>0</v>
@@ -22538,7 +22538,7 @@
         <v>0</v>
       </c>
       <c r="H540">
-        <v>92.29916666666665</v>
+        <v>99.11708333333334</v>
       </c>
       <c r="I540">
         <v>0</v>
@@ -22579,7 +22579,7 @@
         <v>0</v>
       </c>
       <c r="H541">
-        <v>92.29916666666665</v>
+        <v>99.11708333333334</v>
       </c>
       <c r="I541">
         <v>0</v>
@@ -22620,7 +22620,7 @@
         <v>0</v>
       </c>
       <c r="H542">
-        <v>92.29916666666665</v>
+        <v>99.11708333333334</v>
       </c>
       <c r="I542">
         <v>0</v>
@@ -22661,7 +22661,7 @@
         <v>0</v>
       </c>
       <c r="H543">
-        <v>92.29916666666665</v>
+        <v>99.11708333333334</v>
       </c>
       <c r="I543">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         <v>0</v>
       </c>
       <c r="H544">
-        <v>92.29916666666665</v>
+        <v>99.11708333333334</v>
       </c>
       <c r="I544">
         <v>0</v>
@@ -22743,7 +22743,7 @@
         <v>0</v>
       </c>
       <c r="H545">
-        <v>92.29916666666665</v>
+        <v>99.11708333333334</v>
       </c>
       <c r="I545">
         <v>0</v>
@@ -22784,7 +22784,7 @@
         <v>0</v>
       </c>
       <c r="H546">
-        <v>83.52416666666666</v>
+        <v>90.34208333333333</v>
       </c>
       <c r="I546">
         <v>0</v>
@@ -22825,7 +22825,7 @@
         <v>16</v>
       </c>
       <c r="H547">
-        <v>74.82416666666666</v>
+        <v>81.64208333333333</v>
       </c>
       <c r="I547">
         <v>0</v>
@@ -22866,7 +22866,7 @@
         <v>16</v>
       </c>
       <c r="H548">
-        <v>66.92416666666665</v>
+        <v>73.74208333333333</v>
       </c>
       <c r="I548">
         <v>0</v>
@@ -22907,7 +22907,7 @@
         <v>16</v>
       </c>
       <c r="H549">
-        <v>58.89916666666666</v>
+        <v>65.71708333333333</v>
       </c>
       <c r="I549">
         <v>0</v>
@@ -22948,7 +22948,7 @@
         <v>16</v>
       </c>
       <c r="H550">
-        <v>49.72416666666666</v>
+        <v>56.54208333333334</v>
       </c>
       <c r="I550">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>12</v>
       </c>
       <c r="H551">
-        <v>40.94916666666666</v>
+        <v>47.76708333333334</v>
       </c>
       <c r="I551">
         <v>0</v>
@@ -23030,7 +23030,7 @@
         <v>0</v>
       </c>
       <c r="H552">
-        <v>40.94916666666666</v>
+        <v>47.76708333333334</v>
       </c>
       <c r="I552">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="H553">
-        <v>40.94916666666666</v>
+        <v>47.76708333333334</v>
       </c>
       <c r="I553">
         <v>0</v>
@@ -23112,7 +23112,7 @@
         <v>0</v>
       </c>
       <c r="H554">
-        <v>40.94916666666666</v>
+        <v>47.76708333333334</v>
       </c>
       <c r="I554">
         <v>0</v>
@@ -23153,7 +23153,7 @@
         <v>0</v>
       </c>
       <c r="H555">
-        <v>40.94916666666666</v>
+        <v>47.76708333333334</v>
       </c>
       <c r="I555">
         <v>0</v>
@@ -23194,7 +23194,7 @@
         <v>0</v>
       </c>
       <c r="H556">
-        <v>40.94916666666666</v>
+        <v>47.76708333333334</v>
       </c>
       <c r="I556">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="H557">
-        <v>61.26000000000001</v>
+        <v>68.07791666666668</v>
       </c>
       <c r="I557">
         <v>20.31083333333334</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="H558">
-        <v>86.57458333333334</v>
+        <v>93.39250000000001</v>
       </c>
       <c r="I558">
         <v>25.31458333333333</v>
@@ -23320,13 +23320,13 @@
         <v>105.1</v>
       </c>
       <c r="I559">
-        <v>18.52541666666666</v>
+        <v>11.70749999999998</v>
       </c>
       <c r="J559">
         <v>0</v>
       </c>
       <c r="K559">
-        <v>75</v>
+        <v>68.18208333333332</v>
       </c>
       <c r="L559">
         <v>0</v>
@@ -27089,16 +27089,16 @@
         <v>0</v>
       </c>
       <c r="H651">
-        <v>37.74708333333595</v>
+        <v>35.89708333333598</v>
       </c>
       <c r="I651">
-        <v>13.54708333333596</v>
+        <v>11.69708333333599</v>
       </c>
       <c r="J651">
         <v>0</v>
       </c>
       <c r="K651">
-        <v>58.92791666666929</v>
+        <v>57.07791666666932</v>
       </c>
       <c r="L651">
         <v>0</v>
@@ -27130,7 +27130,7 @@
         <v>0</v>
       </c>
       <c r="H652">
-        <v>37.74708333333595</v>
+        <v>35.89708333333598</v>
       </c>
       <c r="I652">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="H653">
-        <v>37.74708333333595</v>
+        <v>35.89708333333598</v>
       </c>
       <c r="I653">
         <v>0</v>
@@ -27212,7 +27212,7 @@
         <v>0</v>
       </c>
       <c r="H654">
-        <v>37.74708333333595</v>
+        <v>35.89708333333598</v>
       </c>
       <c r="I654">
         <v>0</v>
@@ -27253,7 +27253,7 @@
         <v>0</v>
       </c>
       <c r="H655">
-        <v>37.74708333333595</v>
+        <v>35.89708333333598</v>
       </c>
       <c r="I655">
         <v>0</v>
@@ -27294,7 +27294,7 @@
         <v>0</v>
       </c>
       <c r="H656">
-        <v>36.99708333333595</v>
+        <v>35.14708333333598</v>
       </c>
       <c r="I656">
         <v>0</v>
@@ -27335,7 +27335,7 @@
         <v>16</v>
       </c>
       <c r="H657">
-        <v>36.49708333333595</v>
+        <v>34.64708333333598</v>
       </c>
       <c r="I657">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         <v>12</v>
       </c>
       <c r="H658">
-        <v>35.67208333333595</v>
+        <v>33.82208333333598</v>
       </c>
       <c r="I658">
         <v>0</v>
@@ -27417,7 +27417,7 @@
         <v>16</v>
       </c>
       <c r="H659">
-        <v>34.42208333333595</v>
+        <v>32.57208333333598</v>
       </c>
       <c r="I659">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>16</v>
       </c>
       <c r="H660">
-        <v>33.07208333333595</v>
+        <v>31.22208333333598</v>
       </c>
       <c r="I660">
         <v>0</v>
@@ -27499,7 +27499,7 @@
         <v>16</v>
       </c>
       <c r="H661">
-        <v>31.04708333333595</v>
+        <v>29.19708333333598</v>
       </c>
       <c r="I661">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="H662">
-        <v>28.29708333333595</v>
+        <v>26.44708333333598</v>
       </c>
       <c r="I662">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="H663">
-        <v>24.32208333333595</v>
+        <v>22.47208333333598</v>
       </c>
       <c r="I663">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="H664">
-        <v>24.32208333333595</v>
+        <v>22.47208333333598</v>
       </c>
       <c r="I664">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="J665">
-        <v>2.072083333335947</v>
+        <v>0.2220833333359806</v>
       </c>
       <c r="K665">
-        <v>47.74291666666406</v>
+        <v>49.59291666666402</v>
       </c>
       <c r="L665">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>8.1</v>
       </c>
       <c r="E671">
-        <v>0</v>
+        <v>1.642105263157891</v>
       </c>
       <c r="F671">
-        <v>0</v>
+        <v>1.931888544891637</v>
       </c>
       <c r="G671">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="K671">
-        <v>45.13375000000001</v>
+        <v>47.06563854489164</v>
       </c>
       <c r="L671">
         <v>0</v>
@@ -27941,10 +27941,10 @@
         <v>7.3</v>
       </c>
       <c r="E672">
-        <v>0</v>
+        <v>15.24210526315789</v>
       </c>
       <c r="F672">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G672">
         <v>0</v>
@@ -27959,7 +27959,7 @@
         <v>0</v>
       </c>
       <c r="K672">
-        <v>37.02708333333334</v>
+        <v>53.02708333333334</v>
       </c>
       <c r="L672">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>6.1</v>
       </c>
       <c r="E673">
-        <v>13.6</v>
+        <v>28.84210526315789</v>
       </c>
       <c r="F673">
         <v>16</v>
@@ -27991,16 +27991,16 @@
         <v>0</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>26.275</v>
       </c>
       <c r="I673">
-        <v>0</v>
+        <v>26.275</v>
       </c>
       <c r="J673">
         <v>0</v>
       </c>
       <c r="K673">
-        <v>48.62291666666667</v>
+        <v>74.89791666666667</v>
       </c>
       <c r="L673">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>5.774999999999999</v>
       </c>
       <c r="E674">
-        <v>16.31835416666667</v>
+        <v>42.44210526315789</v>
       </c>
       <c r="F674">
-        <v>3.198063725490195</v>
+        <v>16</v>
       </c>
       <c r="G674">
         <v>0</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>26.275</v>
       </c>
       <c r="I674">
         <v>0</v>
@@ -28041,7 +28041,7 @@
         <v>0</v>
       </c>
       <c r="K674">
-        <v>29.94514705882352</v>
+        <v>42.74708333333333</v>
       </c>
       <c r="L674">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>4.074999999999999</v>
       </c>
       <c r="E675">
-        <v>29.91835416666667</v>
+        <v>56.04210526315789</v>
       </c>
       <c r="F675">
         <v>16</v>
@@ -28073,16 +28073,16 @@
         <v>0</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>53.95</v>
       </c>
       <c r="I675">
-        <v>0</v>
+        <v>27.675</v>
       </c>
       <c r="J675">
         <v>0</v>
       </c>
       <c r="K675">
-        <v>44.90583333333333</v>
+        <v>72.58083333333333</v>
       </c>
       <c r="L675">
         <v>0</v>
@@ -28105,31 +28105,31 @@
         <v>2.774999999999999</v>
       </c>
       <c r="E676">
-        <v>43.51835416666667</v>
+        <v>39.2</v>
       </c>
       <c r="F676">
+        <v>0</v>
+      </c>
+      <c r="G676">
         <v>16</v>
       </c>
-      <c r="G676">
-        <v>0</v>
-      </c>
       <c r="H676">
-        <v>27.85</v>
+        <v>51.175</v>
       </c>
       <c r="I676">
-        <v>27.85</v>
+        <v>0</v>
       </c>
       <c r="J676">
-        <v>0</v>
+        <v>2.774999999999999</v>
       </c>
       <c r="K676">
-        <v>72.81916666666666</v>
+        <v>0</v>
       </c>
       <c r="L676">
-        <v>0</v>
+        <v>10.19416666666667</v>
       </c>
       <c r="M676">
-        <v>0</v>
+        <v>10194.16666666667</v>
       </c>
     </row>
     <row r="677" spans="1:13">
@@ -28149,16 +28149,16 @@
         <v>52.8</v>
       </c>
       <c r="F677">
-        <v>10.91958333333334</v>
+        <v>16</v>
       </c>
       <c r="G677">
         <v>0</v>
       </c>
       <c r="H677">
-        <v>55.95</v>
+        <v>74.19458333333334</v>
       </c>
       <c r="I677">
-        <v>28.1</v>
+        <v>23.01958333333334</v>
       </c>
       <c r="J677">
         <v>0</v>
@@ -28196,16 +28196,16 @@
         <v>0</v>
       </c>
       <c r="H678">
-        <v>83.97499999999999</v>
+        <v>79.91458333333333</v>
       </c>
       <c r="I678">
-        <v>28.025</v>
+        <v>5.719999999999985</v>
       </c>
       <c r="J678">
         <v>0</v>
       </c>
       <c r="K678">
-        <v>71.6575</v>
+        <v>49.35249999999998</v>
       </c>
       <c r="L678">
         <v>0</v>
@@ -28240,13 +28240,13 @@
         <v>105.1</v>
       </c>
       <c r="I679">
-        <v>21.125</v>
+        <v>25.18541666666667</v>
       </c>
       <c r="J679">
         <v>0</v>
       </c>
       <c r="K679">
-        <v>70.93958333333333</v>
+        <v>75</v>
       </c>
       <c r="L679">
         <v>0</v>

--- a/Case3_Results.xlsx
+++ b/Case3_Results.xlsx
@@ -553,19 +553,19 @@
         <v>2.774999999999999</v>
       </c>
       <c r="E4">
-        <v>25.6</v>
+        <v>27.2</v>
       </c>
       <c r="F4">
-        <v>14.11764705882353</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>32.3981862745098</v>
+        <v>30.51583333333334</v>
       </c>
       <c r="I4">
-        <v>8.674019607843128</v>
+        <v>6.791666666666663</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -597,16 +597,16 @@
         <v>39.2</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>14.11764705882353</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>41.38985294117646</v>
+        <v>41.38985294117647</v>
       </c>
       <c r="I5">
-        <v>8.991666666666669</v>
+        <v>10.87401960784313</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -635,19 +635,19 @@
         <v>0.9249999999999999</v>
       </c>
       <c r="E6">
-        <v>52.8</v>
+        <v>39.2</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>48.82985294117648</v>
+        <v>64.82985294117648</v>
       </c>
       <c r="I6">
-        <v>7.440000000000009</v>
+        <v>23.44000000000001</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="E7">
-        <v>66.40000000000001</v>
+        <v>52.8</v>
       </c>
       <c r="F7">
         <v>16</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.09276960784315</v>
+        <v>73.09276960784315</v>
       </c>
       <c r="I7">
         <v>8.262916666666669</v>
@@ -720,7 +720,7 @@
         <v>66.40000000000001</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>80.77026960784315</v>
       </c>
       <c r="I8">
-        <v>23.67749999999999</v>
+        <v>7.677499999999995</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -27089,16 +27089,16 @@
         <v>0</v>
       </c>
       <c r="H651">
-        <v>35.89708333333598</v>
+        <v>35.90291666666937</v>
       </c>
       <c r="I651">
-        <v>11.69708333333599</v>
+        <v>11.70291666666937</v>
       </c>
       <c r="J651">
         <v>0</v>
       </c>
       <c r="K651">
-        <v>57.07791666666932</v>
+        <v>57.08375000000271</v>
       </c>
       <c r="L651">
         <v>0</v>
@@ -27130,7 +27130,7 @@
         <v>0</v>
       </c>
       <c r="H652">
-        <v>35.89708333333598</v>
+        <v>35.90291666666937</v>
       </c>
       <c r="I652">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="H653">
-        <v>35.89708333333598</v>
+        <v>35.90291666666937</v>
       </c>
       <c r="I653">
         <v>0</v>
@@ -27212,7 +27212,7 @@
         <v>0</v>
       </c>
       <c r="H654">
-        <v>35.89708333333598</v>
+        <v>35.90291666666937</v>
       </c>
       <c r="I654">
         <v>0</v>
@@ -27253,7 +27253,7 @@
         <v>0</v>
       </c>
       <c r="H655">
-        <v>35.89708333333598</v>
+        <v>35.90291666666937</v>
       </c>
       <c r="I655">
         <v>0</v>
@@ -27294,7 +27294,7 @@
         <v>0</v>
       </c>
       <c r="H656">
-        <v>35.14708333333598</v>
+        <v>35.15291666666937</v>
       </c>
       <c r="I656">
         <v>0</v>
@@ -27335,7 +27335,7 @@
         <v>16</v>
       </c>
       <c r="H657">
-        <v>34.64708333333598</v>
+        <v>34.65291666666937</v>
       </c>
       <c r="I657">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         <v>12</v>
       </c>
       <c r="H658">
-        <v>33.82208333333598</v>
+        <v>33.82791666666937</v>
       </c>
       <c r="I658">
         <v>0</v>
@@ -27417,7 +27417,7 @@
         <v>16</v>
       </c>
       <c r="H659">
-        <v>32.57208333333598</v>
+        <v>32.57791666666937</v>
       </c>
       <c r="I659">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>16</v>
       </c>
       <c r="H660">
-        <v>31.22208333333598</v>
+        <v>31.22791666666937</v>
       </c>
       <c r="I660">
         <v>0</v>
@@ -27499,7 +27499,7 @@
         <v>16</v>
       </c>
       <c r="H661">
-        <v>29.19708333333598</v>
+        <v>29.20291666666937</v>
       </c>
       <c r="I661">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="H662">
-        <v>26.44708333333598</v>
+        <v>26.45291666666937</v>
       </c>
       <c r="I662">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="H663">
-        <v>22.47208333333598</v>
+        <v>22.47791666666937</v>
       </c>
       <c r="I663">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="H664">
-        <v>22.47208333333598</v>
+        <v>22.47791666666937</v>
       </c>
       <c r="I664">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="J665">
-        <v>0.2220833333359806</v>
+        <v>0.2279166666693655</v>
       </c>
       <c r="K665">
-        <v>49.59291666666402</v>
+        <v>49.58708333333064</v>
       </c>
       <c r="L665">
         <v>0</v>
@@ -28032,16 +28032,16 @@
         <v>0</v>
       </c>
       <c r="H674">
-        <v>26.275</v>
+        <v>53.625</v>
       </c>
       <c r="I674">
-        <v>0</v>
+        <v>27.35</v>
       </c>
       <c r="J674">
         <v>0</v>
       </c>
       <c r="K674">
-        <v>42.74708333333333</v>
+        <v>70.09708333333333</v>
       </c>
       <c r="L674">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="H675">
-        <v>53.95</v>
+        <v>81.3</v>
       </c>
       <c r="I675">
         <v>27.675</v>
@@ -28114,22 +28114,22 @@
         <v>16</v>
       </c>
       <c r="H676">
-        <v>51.175</v>
+        <v>78.53083333333333</v>
       </c>
       <c r="I676">
         <v>0</v>
       </c>
       <c r="J676">
-        <v>2.774999999999999</v>
+        <v>2.769166666666668</v>
       </c>
       <c r="K676">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="L676">
-        <v>10.19416666666667</v>
+        <v>0</v>
       </c>
       <c r="M676">
-        <v>10194.16666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:13">
@@ -28155,16 +28155,16 @@
         <v>0</v>
       </c>
       <c r="H677">
-        <v>74.19458333333334</v>
+        <v>78.53083333333333</v>
       </c>
       <c r="I677">
-        <v>23.01958333333334</v>
+        <v>0</v>
       </c>
       <c r="J677">
         <v>0</v>
       </c>
       <c r="K677">
-        <v>75</v>
+        <v>51.98041666666666</v>
       </c>
       <c r="L677">
         <v>0</v>
@@ -28199,13 +28199,13 @@
         <v>79.91458333333333</v>
       </c>
       <c r="I678">
-        <v>5.719999999999985</v>
+        <v>1.383749999999992</v>
       </c>
       <c r="J678">
         <v>0</v>
       </c>
       <c r="K678">
-        <v>49.35249999999998</v>
+        <v>45.01624999999999</v>
       </c>
       <c r="L678">
         <v>0</v>

--- a/Case3_Results.xlsx
+++ b/Case3_Results.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3485123999999999</v>
+        <v>0.4356404999999999</v>
       </c>
       <c r="C2">
         <v>49.83083333333333</v>
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3355433999999999</v>
+        <v>0.4194292499999999</v>
       </c>
       <c r="C3">
         <v>50.595</v>
@@ -544,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3143214</v>
+        <v>0.3929017499999999</v>
       </c>
       <c r="C4">
         <v>49.43333333333334</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2886192</v>
+        <v>0.3607739999999999</v>
       </c>
       <c r="C5">
         <v>48.15833333333333</v>
@@ -594,19 +594,19 @@
         <v>1.85</v>
       </c>
       <c r="E5">
-        <v>39.2</v>
+        <v>40.8</v>
       </c>
       <c r="F5">
-        <v>14.11764705882353</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>41.38985294117647</v>
+        <v>39.50750000000001</v>
       </c>
       <c r="I5">
-        <v>10.87401960784313</v>
+        <v>8.991666666666669</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2830779</v>
+        <v>0.353847375</v>
       </c>
       <c r="C6">
         <v>50.63499999999999</v>
@@ -635,19 +635,19 @@
         <v>0.9249999999999999</v>
       </c>
       <c r="E6">
-        <v>39.2</v>
+        <v>54.4</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>64.82985294117648</v>
+        <v>46.94750000000002</v>
       </c>
       <c r="I6">
-        <v>23.44000000000001</v>
+        <v>7.440000000000009</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2503017</v>
+        <v>0.312877125</v>
       </c>
       <c r="C7">
         <v>50.23708333333333</v>
@@ -676,19 +676,19 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="E7">
-        <v>52.8</v>
+        <v>58.65035416666441</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>5.000416666664016</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>73.09276960784315</v>
+        <v>66.21000000000268</v>
       </c>
       <c r="I7">
-        <v>8.262916666666669</v>
+        <v>19.26250000000265</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2666898</v>
+        <v>0.33336225</v>
       </c>
       <c r="C8">
         <v>51.07250000000001</v>
@@ -717,19 +717,19 @@
         <v>0.25</v>
       </c>
       <c r="E8">
-        <v>66.40000000000001</v>
+        <v>58.65035416666441</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>80.77026960784315</v>
+        <v>89.88750000000267</v>
       </c>
       <c r="I8">
-        <v>7.677499999999995</v>
+        <v>23.67749999999999</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2952216</v>
+        <v>0.369027</v>
       </c>
       <c r="C9">
         <v>54.86916666666667</v>
@@ -758,7 +758,7 @@
         <v>0.325</v>
       </c>
       <c r="E9">
-        <v>80</v>
+        <v>72.25035416666441</v>
       </c>
       <c r="F9">
         <v>16</v>
@@ -767,16 +767,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>82.23416666666665</v>
+        <v>93.693333333336</v>
       </c>
       <c r="I9">
-        <v>1.463897058823505</v>
+        <v>3.805833333333328</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>72.65806372549018</v>
+        <v>75</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3093695999999999</v>
+        <v>0.3867119999999999</v>
       </c>
       <c r="C10">
         <v>61.11874999999999</v>
@@ -802,13 +802,13 @@
         <v>80</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>9.11723039215952</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>82.23416666666665</v>
+        <v>93.693333333336</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>62.36874999999999</v>
+        <v>71.48598039215952</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3797559</v>
+        <v>0.474694875</v>
       </c>
       <c r="C11">
         <v>56.94499999999999</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>82.23416666666665</v>
+        <v>93.693333333336</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4873986</v>
+        <v>0.60924825</v>
       </c>
       <c r="C12">
         <v>57.55916666666666</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>82.23416666666665</v>
+        <v>93.693333333336</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5129829</v>
+        <v>0.641228625</v>
       </c>
       <c r="C13">
         <v>50.89666666666667</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>82.23416666666665</v>
+        <v>93.693333333336</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5072058</v>
+        <v>0.63400725</v>
       </c>
       <c r="C14">
         <v>47.98875</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>82.23416666666665</v>
+        <v>93.693333333336</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5221790999999999</v>
+        <v>0.6527238749999998</v>
       </c>
       <c r="C15">
         <v>46.76833333333334</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>82.23416666666665</v>
+        <v>93.693333333336</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5451695999999999</v>
+        <v>0.6814619999999999</v>
       </c>
       <c r="C16">
         <v>63.36166666666668</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>82.23416666666665</v>
+        <v>93.693333333336</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5966918999999999</v>
+        <v>0.7458648749999999</v>
       </c>
       <c r="C17">
         <v>63.55999999999999</v>
@@ -1095,16 +1095,16 @@
         <v>12</v>
       </c>
       <c r="H17">
-        <v>82.23416666666665</v>
+        <v>93.46541666666664</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2279166666693584</v>
       </c>
       <c r="K17">
-        <v>56.73499999999999</v>
+        <v>56.50708333333063</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7011513</v>
+        <v>0.8764391250000001</v>
       </c>
       <c r="C18">
         <v>61.02833333333334</v>
@@ -1136,7 +1136,7 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>73.45916666666665</v>
+        <v>84.69041666666665</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7662320999999999</v>
+        <v>0.9577901249999998</v>
       </c>
       <c r="C19">
         <v>71.29916666666666</v>
@@ -1177,7 +1177,7 @@
         <v>16</v>
       </c>
       <c r="H19">
-        <v>64.75916666666664</v>
+        <v>75.99041666666665</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7279146</v>
+        <v>0.90989325</v>
       </c>
       <c r="C20">
         <v>73.64125</v>
@@ -1218,7 +1218,7 @@
         <v>16</v>
       </c>
       <c r="H20">
-        <v>56.85916666666665</v>
+        <v>68.09041666666664</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6492752999999999</v>
+        <v>0.8115941249999998</v>
       </c>
       <c r="C21">
         <v>66.8075</v>
@@ -1259,7 +1259,7 @@
         <v>16</v>
       </c>
       <c r="H21">
-        <v>48.83416666666665</v>
+        <v>60.06541666666665</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5660378999999999</v>
+        <v>0.7075473749999999</v>
       </c>
       <c r="C22">
         <v>64.75333333333334</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>48.83416666666665</v>
+        <v>60.06541666666665</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5188779</v>
+        <v>0.648597375</v>
       </c>
       <c r="C23">
         <v>61.52291666666667</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>48.83416666666665</v>
+        <v>60.06541666666665</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.532908</v>
+        <v>0.666135</v>
       </c>
       <c r="C24">
         <v>49.06000000000001</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>48.83416666666665</v>
+        <v>60.06541666666665</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.44802</v>
+        <v>0.560025</v>
       </c>
       <c r="C25">
         <v>41.53416666666667</v>
@@ -1414,16 +1414,16 @@
         <v>7.199999999999999</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>13.6</v>
       </c>
       <c r="F25">
-        <v>14.11764705882353</v>
+        <v>16</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>48.83416666666665</v>
+        <v>60.06541666666665</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>62.8518137254902</v>
+        <v>64.73416666666667</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.44802</v>
+        <v>0.560025</v>
       </c>
       <c r="C26">
         <v>41.79000000000001</v>
@@ -1458,13 +1458,13 @@
         <v>25.6</v>
       </c>
       <c r="F26">
-        <v>16</v>
+        <v>14.11764705882353</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>48.83416666666665</v>
+        <v>60.06541666666665</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>63.565</v>
+        <v>61.68264705882354</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.3956724</v>
+        <v>0.4945905</v>
       </c>
       <c r="C27">
         <v>40.05166666666667</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>63.70749999999998</v>
+        <v>74.93874999999998</v>
       </c>
       <c r="I27">
         <v>14.87333333333333</v>
@@ -1528,7 +1528,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.3776337</v>
+        <v>0.472042125</v>
       </c>
       <c r="C28">
         <v>40.83583333333333</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>79.09666666666665</v>
+        <v>90.32791666666665</v>
       </c>
       <c r="I28">
         <v>15.38916666666667</v>
@@ -1569,7 +1569,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.3806991</v>
+        <v>0.475873875</v>
       </c>
       <c r="C29">
         <v>42.37791666666666</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>93.86874999999999</v>
+        <v>105.1</v>
       </c>
       <c r="I29">
         <v>14.77208333333334</v>
@@ -1610,7 +1610,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.432693</v>
+        <v>0.54086625</v>
       </c>
       <c r="C30">
         <v>46.84375</v>
@@ -1631,13 +1631,13 @@
         <v>105.1</v>
       </c>
       <c r="I30">
-        <v>11.23125</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>75</v>
+        <v>63.76875</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.4918787999999999</v>
+        <v>0.6148484999999999</v>
       </c>
       <c r="C31">
         <v>44.54125000000001</v>
@@ -1692,7 +1692,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.5798321999999999</v>
+        <v>0.7247902499999999</v>
       </c>
       <c r="C32">
         <v>50.64208333333333</v>
@@ -1733,7 +1733,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.6926625</v>
+        <v>0.8658281249999999</v>
       </c>
       <c r="C33">
         <v>54.20249999999999</v>
@@ -1774,7 +1774,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.7742492999999999</v>
+        <v>0.967811625</v>
       </c>
       <c r="C34">
         <v>59.36375000000001</v>
@@ -1815,7 +1815,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.7794368999999999</v>
+        <v>0.9742961249999998</v>
       </c>
       <c r="C35">
         <v>59.53208333333333</v>
@@ -1856,7 +1856,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8132741999999999</v>
+        <v>1.01659275</v>
       </c>
       <c r="C36">
         <v>65.01583333333333</v>
@@ -1897,7 +1897,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.8670366</v>
+        <v>1.08379575</v>
       </c>
       <c r="C37">
         <v>62.66791666666667</v>
@@ -1938,7 +1938,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9215063999999998</v>
+        <v>1.151883</v>
       </c>
       <c r="C38">
         <v>59.11458333333333</v>
@@ -1979,7 +1979,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9298773</v>
+        <v>1.162346625</v>
       </c>
       <c r="C39">
         <v>55.23958333333334</v>
@@ -2020,7 +2020,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9342395999999998</v>
+        <v>1.1677995</v>
       </c>
       <c r="C40">
         <v>54.58000000000001</v>
@@ -2061,7 +2061,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9427283999999998</v>
+        <v>1.1784105</v>
       </c>
       <c r="C41">
         <v>54.62958333333333</v>
@@ -2102,7 +2102,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9604133999999999</v>
+        <v>1.20051675</v>
       </c>
       <c r="C42">
         <v>58.15583333333334</v>
@@ -2143,7 +2143,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9540468</v>
+        <v>1.1925585</v>
       </c>
       <c r="C43">
         <v>77.92125</v>
@@ -2184,7 +2184,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.8836605</v>
+        <v>1.104575625</v>
       </c>
       <c r="C44">
         <v>80.03125</v>
@@ -2225,7 +2225,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.7448921999999999</v>
+        <v>0.9311152499999998</v>
       </c>
       <c r="C45">
         <v>71.13083333333334</v>
@@ -2266,7 +2266,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.6733269</v>
+        <v>0.841658625</v>
       </c>
       <c r="C46">
         <v>63.12458333333333</v>
@@ -2307,7 +2307,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.5663915999999999</v>
+        <v>0.7079894999999998</v>
       </c>
       <c r="C47">
         <v>61.72333333333334</v>
@@ -2348,7 +2348,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.5356196999999999</v>
+        <v>0.6695246249999999</v>
       </c>
       <c r="C48">
         <v>52.77666666666667</v>
@@ -2389,7 +2389,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.5010749999999999</v>
+        <v>0.62634375</v>
       </c>
       <c r="C49">
         <v>48.92</v>
@@ -2398,19 +2398,19 @@
         <v>7.199999999999999</v>
       </c>
       <c r="E49">
-        <v>13.6</v>
+        <v>8.329291666666677</v>
       </c>
       <c r="F49">
-        <v>16</v>
+        <v>9.799166666666679</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>51.85499999999999</v>
+        <v>58.05583333333332</v>
       </c>
       <c r="I49">
-        <v>2.879999999999999</v>
+        <v>9.080833333333324</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.4810319999999999</v>
+        <v>0.6012899999999999</v>
       </c>
       <c r="C50">
         <v>44.74166666666666</v>
@@ -2439,10 +2439,10 @@
         <v>5.774999999999999</v>
       </c>
       <c r="E50">
-        <v>21.92929166666667</v>
+        <v>21.92929166666668</v>
       </c>
       <c r="F50">
-        <v>9.799166666666672</v>
+        <v>16</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>66.53916666666666</v>
       </c>
       <c r="I50">
-        <v>14.68416666666667</v>
+        <v>8.483333333333333</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.4622859</v>
+        <v>0.577857375</v>
       </c>
       <c r="C51">
         <v>43.45875</v>
@@ -2480,7 +2480,7 @@
         <v>4.074999999999999</v>
       </c>
       <c r="E51">
-        <v>35.52929166666667</v>
+        <v>35.52929166666668</v>
       </c>
       <c r="F51">
         <v>16</v>
@@ -2512,7 +2512,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.4404743999999999</v>
+        <v>0.5505929999999999</v>
       </c>
       <c r="C52">
         <v>43.94958333333334</v>
@@ -2521,7 +2521,7 @@
         <v>2.774999999999999</v>
       </c>
       <c r="E52">
-        <v>49.12929166666667</v>
+        <v>49.12929166666668</v>
       </c>
       <c r="F52">
         <v>16</v>
@@ -2553,7 +2553,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.4264443</v>
+        <v>0.533055375</v>
       </c>
       <c r="C53">
         <v>51.80958333333334</v>
@@ -2594,7 +2594,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.4504958999999999</v>
+        <v>0.5631198749999999</v>
       </c>
       <c r="C54">
         <v>48.59625</v>
@@ -2635,7 +2635,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5020182</v>
+        <v>0.62752275</v>
       </c>
       <c r="C55">
         <v>47.23625000000001</v>
@@ -2676,7 +2676,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.5828975999999999</v>
+        <v>0.7286219999999999</v>
       </c>
       <c r="C56">
         <v>54.12916666666668</v>
@@ -2717,7 +2717,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.6311187</v>
+        <v>0.788898375</v>
       </c>
       <c r="C57">
         <v>58.72041666666667</v>
@@ -2758,7 +2758,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.7484291999999999</v>
+        <v>0.9355364999999999</v>
       </c>
       <c r="C58">
         <v>56.78083333333333</v>
@@ -2799,7 +2799,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.7662320999999999</v>
+        <v>0.9577901249999998</v>
       </c>
       <c r="C59">
         <v>54.12958333333333</v>
@@ -2840,7 +2840,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.7096401</v>
+        <v>0.887050125</v>
       </c>
       <c r="C60">
         <v>57.55708333333335</v>
@@ -2881,7 +2881,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.7069284</v>
+        <v>0.8836605</v>
       </c>
       <c r="C61">
         <v>45.58000000000001</v>
@@ -2922,7 +2922,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.7050419999999999</v>
+        <v>0.8813024999999999</v>
       </c>
       <c r="C62">
         <v>45.6225</v>
@@ -2963,7 +2963,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6939594</v>
+        <v>0.8674492499999999</v>
       </c>
       <c r="C63">
         <v>42.43125000000001</v>
@@ -3004,7 +3004,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.7662320999999999</v>
+        <v>0.9577901249999998</v>
       </c>
       <c r="C64">
         <v>40.93208333333333</v>
@@ -3045,7 +3045,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.8115056999999999</v>
+        <v>1.014382125</v>
       </c>
       <c r="C65">
         <v>42.57333333333333</v>
@@ -3086,7 +3086,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.8676261</v>
+        <v>1.084532625</v>
       </c>
       <c r="C66">
         <v>47.52125</v>
@@ -3127,7 +3127,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.9700812</v>
+        <v>1.2126015</v>
       </c>
       <c r="C67">
         <v>55.57333333333333</v>
@@ -3168,7 +3168,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.9782162999999999</v>
+        <v>1.222770375</v>
       </c>
       <c r="C68">
         <v>52.8775</v>
@@ -3209,7 +3209,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.9317637</v>
+        <v>1.164704625</v>
       </c>
       <c r="C69">
         <v>48.41208333333333</v>
@@ -3250,7 +3250,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.8633817</v>
+        <v>1.079227125</v>
       </c>
       <c r="C70">
         <v>55.42666666666666</v>
@@ -3291,7 +3291,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.7947639</v>
+        <v>0.993454875</v>
       </c>
       <c r="C71">
         <v>60.84125</v>
@@ -3332,7 +3332,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7663499999999999</v>
+        <v>0.9579374999999999</v>
       </c>
       <c r="C72">
         <v>34.90291666666667</v>
@@ -3373,7 +3373,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.6852347999999999</v>
+        <v>0.8565434999999999</v>
       </c>
       <c r="C73">
         <v>33.68833333333334</v>
@@ -3414,7 +3414,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6921908999999999</v>
+        <v>0.8652386249999999</v>
       </c>
       <c r="C74">
         <v>29.13541666666667</v>
@@ -3455,7 +3455,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.631944</v>
+        <v>0.7899299999999999</v>
       </c>
       <c r="C75">
         <v>30.29583333333333</v>
@@ -3496,7 +3496,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.6418476</v>
+        <v>0.8023095</v>
       </c>
       <c r="C76">
         <v>33.79833333333333</v>
@@ -3537,7 +3537,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.6505721999999999</v>
+        <v>0.8132152499999999</v>
       </c>
       <c r="C77">
         <v>34.24708333333333</v>
@@ -3578,7 +3578,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.6867675</v>
+        <v>0.858459375</v>
       </c>
       <c r="C78">
         <v>38.19333333333334</v>
@@ -3619,7 +3619,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.6973784999999999</v>
+        <v>0.8717231249999999</v>
       </c>
       <c r="C79">
         <v>42.16291666666667</v>
@@ -3660,7 +3660,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.8565435</v>
+        <v>1.070679375</v>
       </c>
       <c r="C80">
         <v>43.56916666666667</v>
@@ -3701,7 +3701,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.0023858</v>
+        <v>1.25298225</v>
       </c>
       <c r="C81">
         <v>46.80333333333333</v>
@@ -3742,7 +3742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.0784313</v>
+        <v>1.348039125</v>
       </c>
       <c r="C82">
         <v>46.65125</v>
@@ -3783,7 +3783,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.110618</v>
+        <v>1.3882725</v>
       </c>
       <c r="C83">
         <v>44.31708333333334</v>
@@ -3824,7 +3824,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.0844442</v>
+        <v>1.35555525</v>
       </c>
       <c r="C84">
         <v>43.57125000000001</v>
@@ -3865,7 +3865,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.065816</v>
+        <v>1.33227</v>
       </c>
       <c r="C85">
         <v>36.82833333333333</v>
@@ -3906,7 +3906,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.0220751</v>
+        <v>1.277593875</v>
       </c>
       <c r="C86">
         <v>48.47000000000001</v>
@@ -3947,7 +3947,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.0134684</v>
+        <v>1.2668355</v>
       </c>
       <c r="C87">
         <v>39.53416666666666</v>
@@ -3988,7 +3988,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.0859769</v>
+        <v>1.357471125</v>
       </c>
       <c r="C88">
         <v>31.89708333333333</v>
@@ -4029,7 +4029,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.1627298</v>
+        <v>1.45341225</v>
       </c>
       <c r="C89">
         <v>29.36958333333333</v>
@@ -4070,7 +4070,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.2465567</v>
+        <v>1.558195875</v>
       </c>
       <c r="C90">
         <v>38.21541666666667</v>
@@ -4111,7 +4111,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.5707817</v>
+        <v>1.963477125</v>
       </c>
       <c r="C91">
         <v>51.92458333333336</v>
@@ -4152,7 +4152,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.7054235</v>
+        <v>2.131779375</v>
       </c>
       <c r="C92">
         <v>55.46750000000001</v>
@@ -4193,7 +4193,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.4309523</v>
+        <v>1.788690375</v>
       </c>
       <c r="C93">
         <v>58.36708333333333</v>
@@ -4234,7 +4234,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.1858382</v>
+        <v>1.48229775</v>
       </c>
       <c r="C94">
         <v>62.37583333333333</v>
@@ -4275,7 +4275,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.1449269</v>
+        <v>1.431158625</v>
       </c>
       <c r="C95">
         <v>47.92041666666667</v>
@@ -4316,7 +4316,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.1115612</v>
+        <v>1.3894515</v>
       </c>
       <c r="C96">
         <v>31.00625</v>
@@ -4357,7 +4357,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.0473057</v>
+        <v>1.309132125</v>
       </c>
       <c r="C97">
         <v>23.89208333333334</v>
@@ -4398,7 +4398,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.0473057</v>
+        <v>1.309132125</v>
       </c>
       <c r="C98">
         <v>23.2175</v>
@@ -4439,7 +4439,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.9796311</v>
+        <v>1.224538875</v>
       </c>
       <c r="C99">
         <v>26.08708333333333</v>
@@ -4480,7 +4480,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.9431999999999999</v>
+        <v>1.179</v>
       </c>
       <c r="C100">
         <v>26.47</v>
@@ -4521,7 +4521,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.9452043</v>
+        <v>1.181505375</v>
       </c>
       <c r="C101">
         <v>30.37416666666667</v>
@@ -4562,7 +4562,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.9725570999999998</v>
+        <v>1.215696375</v>
       </c>
       <c r="C102">
         <v>33.71583333333333</v>
@@ -4603,7 +4603,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.0391706</v>
+        <v>1.29896325</v>
       </c>
       <c r="C103">
         <v>32.85958333333333</v>
@@ -4644,7 +4644,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.2944241</v>
+        <v>1.618030125</v>
       </c>
       <c r="C104">
         <v>45.11583333333333</v>
@@ -4685,7 +4685,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.9454679</v>
+        <v>2.431834875</v>
       </c>
       <c r="C105">
         <v>39.15</v>
@@ -4726,7 +4726,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>2.3493933</v>
+        <v>2.936741624999999</v>
       </c>
       <c r="C106">
         <v>29.21416666666666</v>
@@ -4767,7 +4767,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>2.8096749</v>
+        <v>3.512093625</v>
       </c>
       <c r="C107">
         <v>39.53833333333333</v>
@@ -4808,7 +4808,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>3.0165894</v>
+        <v>3.77073675</v>
       </c>
       <c r="C108">
         <v>35.02291666666667</v>
@@ -4849,7 +4849,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>2.4889869</v>
+        <v>3.111233625</v>
       </c>
       <c r="C109">
         <v>30.84583333333333</v>
@@ -4890,7 +4890,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>2.3966712</v>
+        <v>2.995839</v>
       </c>
       <c r="C110">
         <v>30.49791666666667</v>
@@ -4931,7 +4931,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>2.3223942</v>
+        <v>2.90299275</v>
       </c>
       <c r="C111">
         <v>27.75708333333333</v>
@@ -4972,7 +4972,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>2.3327694</v>
+        <v>2.91596175</v>
       </c>
       <c r="C112">
         <v>35.6675</v>
@@ -5013,7 +5013,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>3.5362926</v>
+        <v>4.42036575</v>
       </c>
       <c r="C113">
         <v>30.45458333333333</v>
@@ -5054,7 +5054,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5.301255599999999</v>
+        <v>6.626569499999999</v>
       </c>
       <c r="C114">
         <v>38.91583333333333</v>
@@ -5095,7 +5095,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6.204487499999999</v>
+        <v>7.755609374999999</v>
       </c>
       <c r="C115">
         <v>56.54958333333334</v>
@@ -5136,7 +5136,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>4.1259105</v>
+        <v>5.157388125</v>
       </c>
       <c r="C116">
         <v>58.38625</v>
@@ -5177,7 +5177,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>2.1447189</v>
+        <v>2.680898625</v>
       </c>
       <c r="C117">
         <v>53.02500000000001</v>
@@ -5218,7 +5218,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.763784</v>
+        <v>2.20473</v>
       </c>
       <c r="C118">
         <v>44.93041666666667</v>
@@ -5259,7 +5259,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.3301478</v>
+        <v>1.66268475</v>
       </c>
       <c r="C119">
         <v>44.62958333333334</v>
@@ -5300,7 +5300,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.180179</v>
+        <v>1.47522375</v>
       </c>
       <c r="C120">
         <v>34.47416666666666</v>
@@ -5341,7 +5341,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.0949373</v>
+        <v>1.368671625</v>
       </c>
       <c r="C121">
         <v>27.98916666666666</v>
@@ -5382,7 +5382,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.0007352</v>
+        <v>1.250919</v>
       </c>
       <c r="C122">
         <v>27.13083333333334</v>
@@ -5423,7 +5423,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.980928</v>
+        <v>1.22616</v>
       </c>
       <c r="C123">
         <v>25.40333333333334</v>
@@ -5464,7 +5464,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.9671337</v>
+        <v>1.208917125</v>
       </c>
       <c r="C124">
         <v>26.46666666666667</v>
@@ -5505,7 +5505,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.9689022</v>
+        <v>1.21112775</v>
       </c>
       <c r="C125">
         <v>30.88208333333333</v>
@@ -5546,7 +5546,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.9730287</v>
+        <v>1.216285875</v>
       </c>
       <c r="C126">
         <v>29.38291666666666</v>
@@ -5587,7 +5587,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.9918926999999998</v>
+        <v>1.239865875</v>
       </c>
       <c r="C127">
         <v>28.20333333333333</v>
@@ -5628,7 +5628,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.9960192</v>
+        <v>1.245024</v>
       </c>
       <c r="C128">
         <v>37.07208333333333</v>
@@ -5669,7 +5669,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1.0307997</v>
+        <v>1.288499625</v>
       </c>
       <c r="C129">
         <v>39.21458333333332</v>
@@ -5710,7 +5710,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.0713573</v>
+        <v>1.339196625</v>
       </c>
       <c r="C130">
         <v>44.61833333333334</v>
@@ -5751,7 +5751,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.1198142</v>
+        <v>1.39976775</v>
       </c>
       <c r="C131">
         <v>46.39</v>
@@ -5792,7 +5792,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1.1838339</v>
+        <v>1.479792375</v>
       </c>
       <c r="C132">
         <v>45.10375000000001</v>
@@ -5833,7 +5833,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.2220335</v>
+        <v>1.527541875</v>
       </c>
       <c r="C133">
         <v>49.94333333333334</v>
@@ -5874,7 +5874,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.2064707</v>
+        <v>1.508088375</v>
       </c>
       <c r="C134">
         <v>50.56333333333333</v>
@@ -5915,7 +5915,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.1524725</v>
+        <v>1.440590625</v>
       </c>
       <c r="C135">
         <v>38.74333333333333</v>
@@ -5956,7 +5956,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.1260629</v>
+        <v>1.407578625</v>
       </c>
       <c r="C136">
         <v>37.06666666666668</v>
@@ -5997,7 +5997,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.161315</v>
+        <v>1.45164375</v>
       </c>
       <c r="C137">
         <v>36.85083333333333</v>
@@ -6038,7 +6038,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.2969</v>
+        <v>1.621125</v>
       </c>
       <c r="C138">
         <v>44.97416666666666</v>
@@ -6079,7 +6079,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.3944033</v>
+        <v>1.743004125</v>
       </c>
       <c r="C139">
         <v>45.29583333333333</v>
@@ -6120,7 +6120,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.2608226</v>
+        <v>1.57602825</v>
       </c>
       <c r="C140">
         <v>41.0175</v>
@@ -6161,7 +6161,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.2057633</v>
+        <v>1.507204125</v>
       </c>
       <c r="C141">
         <v>37.73458333333333</v>
@@ -6202,7 +6202,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.1198142</v>
+        <v>1.39976775</v>
       </c>
       <c r="C142">
         <v>33.45</v>
@@ -6243,7 +6243,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.0685277</v>
+        <v>1.335659625</v>
       </c>
       <c r="C143">
         <v>39.29833333333333</v>
@@ -6284,7 +6284,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.0533186</v>
+        <v>1.31664825</v>
       </c>
       <c r="C144">
         <v>31.29791666666667</v>
@@ -6325,7 +6325,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.9762119999999999</v>
+        <v>1.220265</v>
       </c>
       <c r="C145">
         <v>22.15625</v>
@@ -6366,7 +6366,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.0157085</v>
+        <v>1.269635625</v>
       </c>
       <c r="C146">
         <v>23.09791666666666</v>
@@ -6407,7 +6407,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.9722033999999998</v>
+        <v>1.21525425</v>
       </c>
       <c r="C147">
         <v>19.11</v>
@@ -6448,7 +6448,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.9340037999999999</v>
+        <v>1.16750475</v>
       </c>
       <c r="C148">
         <v>17.98958333333333</v>
@@ -6489,7 +6489,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.9140786999999999</v>
+        <v>1.142598375</v>
       </c>
       <c r="C149">
         <v>24.06874999999999</v>
@@ -6530,7 +6530,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.9065331</v>
+        <v>1.133166375</v>
       </c>
       <c r="C150">
         <v>22.70958333333333</v>
@@ -6571,7 +6571,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.9127818</v>
+        <v>1.14097725</v>
       </c>
       <c r="C151">
         <v>24.975</v>
@@ -6612,7 +6612,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.9249255</v>
+        <v>1.156156875</v>
       </c>
       <c r="C152">
         <v>24.38125</v>
@@ -6653,7 +6653,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.9475623</v>
+        <v>1.184452875</v>
       </c>
       <c r="C153">
         <v>33.23375</v>
@@ -6694,7 +6694,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.9928358999999998</v>
+        <v>1.241044875</v>
       </c>
       <c r="C154">
         <v>38.78625</v>
@@ -6735,7 +6735,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.0324503</v>
+        <v>1.290562875</v>
       </c>
       <c r="C155">
         <v>43.95125</v>
@@ -6776,7 +6776,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1.0581525</v>
+        <v>1.322690625</v>
       </c>
       <c r="C156">
         <v>36.45958333333333</v>
@@ -6817,7 +6817,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.9859976999999999</v>
+        <v>1.232497125</v>
       </c>
       <c r="C157">
         <v>36.86375</v>
@@ -6858,7 +6858,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.8966294999999999</v>
+        <v>1.120786875</v>
       </c>
       <c r="C158">
         <v>41.005</v>
@@ -6899,7 +6899,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.8017199999999999</v>
+        <v>1.00215</v>
       </c>
       <c r="C159">
         <v>44.58166666666666</v>
@@ -6940,7 +6940,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.7645814999999999</v>
+        <v>0.9557268749999999</v>
       </c>
       <c r="C160">
         <v>46.36208333333333</v>
@@ -6981,7 +6981,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.7516124999999999</v>
+        <v>0.9395156249999999</v>
       </c>
       <c r="C161">
         <v>50.44625</v>
@@ -7022,7 +7022,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.7104653999999999</v>
+        <v>0.8880817499999999</v>
       </c>
       <c r="C162">
         <v>65.16749999999999</v>
@@ -7063,7 +7063,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.7102296</v>
+        <v>0.887787</v>
       </c>
       <c r="C163">
         <v>72.99291666666667</v>
@@ -7104,7 +7104,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.7096401</v>
+        <v>0.887050125</v>
       </c>
       <c r="C164">
         <v>53.95708333333334</v>
@@ -7145,7 +7145,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.6745059</v>
+        <v>0.8431323749999999</v>
       </c>
       <c r="C165">
         <v>44.51583333333333</v>
@@ -7186,7 +7186,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.6506900999999999</v>
+        <v>0.8133626249999999</v>
       </c>
       <c r="C166">
         <v>41.50083333333333</v>
@@ -7227,7 +7227,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.7053957</v>
+        <v>0.8817446249999999</v>
       </c>
       <c r="C167">
         <v>32.67166666666667</v>
@@ -7268,7 +7268,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.6879465</v>
+        <v>0.859933125</v>
       </c>
       <c r="C168">
         <v>29.84791666666666</v>
@@ -7309,7 +7309,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.689715</v>
+        <v>0.86214375</v>
       </c>
       <c r="C169">
         <v>25.35</v>
@@ -7350,7 +7350,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.6373674</v>
+        <v>0.79670925</v>
       </c>
       <c r="C170">
         <v>30.73</v>
@@ -7391,7 +7391,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.6397253999999999</v>
+        <v>0.7996567499999998</v>
       </c>
       <c r="C171">
         <v>25.44333333333333</v>
@@ -7432,7 +7432,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.6451488</v>
+        <v>0.8064359999999999</v>
       </c>
       <c r="C172">
         <v>27.9425</v>
@@ -7441,10 +7441,10 @@
         <v>2.774999999999999</v>
       </c>
       <c r="E172">
-        <v>40.8</v>
+        <v>33.68421052631579</v>
       </c>
       <c r="F172">
-        <v>16</v>
+        <v>7.628482972136222</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="K172">
-        <v>46.71749999999999</v>
+        <v>38.34598297213622</v>
       </c>
       <c r="L172">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.6483321</v>
+        <v>0.810415125</v>
       </c>
       <c r="C173">
         <v>26.30666666666667</v>
@@ -7482,10 +7482,10 @@
         <v>1.85</v>
       </c>
       <c r="E173">
-        <v>50.52631578947368</v>
+        <v>33.68421052631579</v>
       </c>
       <c r="F173">
-        <v>11.44272445820434</v>
+        <v>0</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="K173">
-        <v>39.59939112487101</v>
+        <v>28.15666666666667</v>
       </c>
       <c r="L173">
         <v>0</v>
@@ -7514,7 +7514,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.6615369</v>
+        <v>0.8269211249999999</v>
       </c>
       <c r="C174">
         <v>31.30041666666667</v>
@@ -7523,7 +7523,7 @@
         <v>0.9249999999999999</v>
       </c>
       <c r="E174">
-        <v>50.52631578947368</v>
+        <v>33.68421052631579</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -7555,7 +7555,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.6853527</v>
+        <v>0.8566908750000001</v>
       </c>
       <c r="C175">
         <v>36.67166666666667</v>
@@ -7564,7 +7564,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="E175">
-        <v>50.52631578947368</v>
+        <v>33.68421052631579</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -7596,7 +7596,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.6485678999999999</v>
+        <v>0.8107098749999998</v>
       </c>
       <c r="C176">
         <v>43.84958333333334</v>
@@ -7605,7 +7605,7 @@
         <v>0.25</v>
       </c>
       <c r="E176">
-        <v>50.52631578947368</v>
+        <v>33.68421052631579</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.7507872</v>
+        <v>0.938484</v>
       </c>
       <c r="C177">
         <v>40.15041666666666</v>
@@ -7652,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="G177">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="K177">
-        <v>24.47541666666666</v>
+        <v>40.47541666666667</v>
       </c>
       <c r="L177">
         <v>0</v>
@@ -7678,7 +7678,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.7804979999999999</v>
+        <v>0.9756224999999998</v>
       </c>
       <c r="C178">
         <v>45.02791666666666</v>
@@ -7719,7 +7719,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.7674111</v>
+        <v>0.959263875</v>
       </c>
       <c r="C179">
         <v>39.19208333333334</v>
@@ -7760,7 +7760,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.7033913999999999</v>
+        <v>0.8792392499999999</v>
       </c>
       <c r="C180">
         <v>39.53833333333335</v>
@@ -7801,7 +7801,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.6568208999999999</v>
+        <v>0.8210261249999999</v>
       </c>
       <c r="C181">
         <v>38.26291666666666</v>
@@ -7842,7 +7842,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.6436160999999999</v>
+        <v>0.8045201249999999</v>
       </c>
       <c r="C182">
         <v>43.84500000000001</v>
@@ -7883,7 +7883,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.622512</v>
+        <v>0.7781399999999999</v>
       </c>
       <c r="C183">
         <v>42.33375</v>
@@ -7924,7 +7924,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.6144947999999999</v>
+        <v>0.7681184999999999</v>
       </c>
       <c r="C184">
         <v>44.73083333333332</v>
@@ -7965,7 +7965,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.5959844999999999</v>
+        <v>0.744980625</v>
       </c>
       <c r="C185">
         <v>38.76625000000001</v>
@@ -8006,7 +8006,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.5956308</v>
+        <v>0.7445385</v>
       </c>
       <c r="C186">
         <v>44.22749999999999</v>
@@ -8047,7 +8047,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.580068</v>
+        <v>0.725085</v>
       </c>
       <c r="C187">
         <v>54.03541666666667</v>
@@ -8088,7 +8088,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.5557806</v>
+        <v>0.6947257499999999</v>
       </c>
       <c r="C188">
         <v>50.005</v>
@@ -8129,7 +8129,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.5542478999999999</v>
+        <v>0.6928098749999999</v>
       </c>
       <c r="C189">
         <v>48.51624999999999</v>
@@ -8170,7 +8170,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.5513003999999999</v>
+        <v>0.6891254999999998</v>
       </c>
       <c r="C190">
         <v>41.90958333333335</v>
@@ -8211,7 +8211,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.5643873</v>
+        <v>0.705484125</v>
       </c>
       <c r="C191">
         <v>47.27708333333333</v>
@@ -8252,7 +8252,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.5686317</v>
+        <v>0.710789625</v>
       </c>
       <c r="C192">
         <v>42.65583333333333</v>
@@ -8293,7 +8293,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.5617934999999999</v>
+        <v>0.7022418749999999</v>
       </c>
       <c r="C193">
         <v>38.56708333333334</v>
@@ -8334,7 +8334,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.3267009</v>
+        <v>0.408376125</v>
       </c>
       <c r="C194">
         <v>35.44333333333334</v>
@@ -8375,7 +8375,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.3151467</v>
+        <v>0.393933375</v>
       </c>
       <c r="C195">
         <v>30.50583333333333</v>
@@ -8416,7 +8416,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.3104306999999999</v>
+        <v>0.3880383749999999</v>
       </c>
       <c r="C196">
         <v>32.23416666666666</v>
@@ -8457,7 +8457,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.3097233</v>
+        <v>0.387154125</v>
       </c>
       <c r="C197">
         <v>36.51833333333334</v>
@@ -8498,7 +8498,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.3169152</v>
+        <v>0.3961439999999999</v>
       </c>
       <c r="C198">
         <v>35.79791666666667</v>
@@ -8539,7 +8539,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.3295304999999999</v>
+        <v>0.4119131249999999</v>
       </c>
       <c r="C199">
         <v>38.18708333333334</v>
@@ -8580,7 +8580,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.3331854</v>
+        <v>0.41648175</v>
       </c>
       <c r="C200">
         <v>42.51208333333334</v>
@@ -8621,7 +8621,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.5082669</v>
+        <v>0.6353336249999999</v>
       </c>
       <c r="C201">
         <v>49.75916666666667</v>
@@ -8662,7 +8662,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.5626188</v>
+        <v>0.7032735</v>
       </c>
       <c r="C202">
         <v>43.05250000000001</v>
@@ -8703,7 +8703,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.5654484</v>
+        <v>0.7068105</v>
       </c>
       <c r="C203">
         <v>35.40250000000001</v>
@@ -8744,7 +8744,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.5768846999999999</v>
+        <v>0.7211058749999999</v>
       </c>
       <c r="C204">
         <v>29.77541666666667</v>
@@ -8785,7 +8785,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.5768846999999999</v>
+        <v>0.7211058749999999</v>
       </c>
       <c r="C205">
         <v>35.69166666666666</v>
@@ -8826,7 +8826,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.5928012</v>
+        <v>0.7410015000000001</v>
       </c>
       <c r="C206">
         <v>32.535</v>
@@ -8867,7 +8867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.5956308</v>
+        <v>0.7445385</v>
       </c>
       <c r="C207">
         <v>33.71333333333334</v>
@@ -8908,7 +8908,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.5957487</v>
+        <v>0.7446858750000001</v>
       </c>
       <c r="C208">
         <v>36.69916666666667</v>
@@ -8917,13 +8917,13 @@
         <v>3.924999999999999</v>
       </c>
       <c r="E208">
-        <v>69.01052631578946</v>
+        <v>80</v>
       </c>
       <c r="F208">
         <v>0</v>
       </c>
       <c r="G208">
-        <v>10.44000000000001</v>
+        <v>0</v>
       </c>
       <c r="H208">
         <v>105.1</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="K208">
-        <v>30.18416666666666</v>
+        <v>40.62416666666667</v>
       </c>
       <c r="L208">
         <v>0</v>
@@ -8949,7 +8949,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.6009363</v>
+        <v>0.7511703749999999</v>
       </c>
       <c r="C209">
         <v>45.75791666666667</v>
@@ -8958,7 +8958,7 @@
         <v>5.175000000000001</v>
       </c>
       <c r="E209">
-        <v>52.16842105263157</v>
+        <v>63.15789473684211</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -8990,7 +8990,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.6097788</v>
+        <v>0.7622234999999999</v>
       </c>
       <c r="C210">
         <v>45.02458333333335</v>
@@ -8999,7 +8999,7 @@
         <v>8.774999999999999</v>
       </c>
       <c r="E210">
-        <v>35.32631578947368</v>
+        <v>46.31578947368422</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -9031,7 +9031,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.5877315</v>
+        <v>0.7346643749999999</v>
       </c>
       <c r="C211">
         <v>62.20916666666667</v>
@@ -9040,7 +9040,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="E211">
-        <v>35.32631578947368</v>
+        <v>46.31578947368422</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -9072,7 +9072,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.5874957</v>
+        <v>0.7343696249999999</v>
       </c>
       <c r="C212">
         <v>63.9725</v>
@@ -9081,7 +9081,7 @@
         <v>7.9</v>
       </c>
       <c r="E212">
-        <v>35.32631578947368</v>
+        <v>46.31578947368422</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -9113,7 +9113,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.5775920999999999</v>
+        <v>0.7219901249999999</v>
       </c>
       <c r="C213">
         <v>52.46041666666667</v>
@@ -9122,7 +9122,7 @@
         <v>8.024999999999999</v>
       </c>
       <c r="E213">
-        <v>35.32631578947368</v>
+        <v>46.31578947368422</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -9154,7 +9154,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.5770025999999999</v>
+        <v>0.72125325</v>
       </c>
       <c r="C214">
         <v>39.4725</v>
@@ -9163,7 +9163,7 @@
         <v>9.175000000000001</v>
       </c>
       <c r="E214">
-        <v>35.32631578947368</v>
+        <v>46.31578947368422</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -9195,7 +9195,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.55413</v>
+        <v>0.6926625</v>
       </c>
       <c r="C215">
         <v>38.94833333333334</v>
@@ -9204,7 +9204,7 @@
         <v>8.774999999999999</v>
       </c>
       <c r="E215">
-        <v>35.32631578947368</v>
+        <v>46.31578947368422</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -9236,7 +9236,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.5757057</v>
+        <v>0.719632125</v>
       </c>
       <c r="C216">
         <v>35.06333333333333</v>
@@ -9245,7 +9245,7 @@
         <v>8.149999999999999</v>
       </c>
       <c r="E216">
-        <v>35.32631578947368</v>
+        <v>46.31578947368422</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -9277,7 +9277,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.5346765</v>
+        <v>0.6683456249999999</v>
       </c>
       <c r="C217">
         <v>29.82166666666667</v>
@@ -9286,7 +9286,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="E217">
-        <v>35.32631578947368</v>
+        <v>46.31578947368422</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.6011721</v>
+        <v>0.751465125</v>
       </c>
       <c r="C218">
         <v>26.01791666666667</v>
@@ -9327,7 +9327,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="E218">
-        <v>35.32631578947368</v>
+        <v>46.31578947368422</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -9359,7 +9359,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.5836049999999999</v>
+        <v>0.7295062499999999</v>
       </c>
       <c r="C219">
         <v>19.92333333333333</v>
@@ -9368,7 +9368,7 @@
         <v>4.074999999999999</v>
       </c>
       <c r="E219">
-        <v>35.32631578947368</v>
+        <v>46.31578947368422</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.5589639</v>
+        <v>0.698704875</v>
       </c>
       <c r="C220">
         <v>23.66333333333333</v>
@@ -9409,7 +9409,7 @@
         <v>2.774999999999999</v>
       </c>
       <c r="E220">
-        <v>35.32631578947368</v>
+        <v>46.31578947368422</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -9441,7 +9441,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.5301963</v>
+        <v>0.662745375</v>
       </c>
       <c r="C221">
         <v>26.30999999999999</v>
@@ -9450,7 +9450,7 @@
         <v>1.85</v>
       </c>
       <c r="E221">
-        <v>35.32631578947368</v>
+        <v>46.31578947368422</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.4948262999999999</v>
+        <v>0.6185328749999999</v>
       </c>
       <c r="C222">
         <v>24.30375</v>
@@ -9491,7 +9491,7 @@
         <v>0.9249999999999999</v>
       </c>
       <c r="E222">
-        <v>48.92631578947368</v>
+        <v>59.91578947368422</v>
       </c>
       <c r="F222">
         <v>16</v>
@@ -9523,7 +9523,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.4717178999999999</v>
+        <v>0.5896473749999999</v>
       </c>
       <c r="C223">
         <v>32.63666666666667</v>
@@ -9532,7 +9532,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="E223">
-        <v>62.52631578947368</v>
+        <v>73.51578947368422</v>
       </c>
       <c r="F223">
         <v>16</v>
@@ -9564,7 +9564,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.4942368</v>
+        <v>0.617796</v>
       </c>
       <c r="C224">
         <v>43.78375000000001</v>
@@ -9573,7 +9573,7 @@
         <v>0.25</v>
       </c>
       <c r="E224">
-        <v>62.52631578947368</v>
+        <v>73.51578947368422</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -9605,7 +9605,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.5483529</v>
+        <v>0.6854411250000001</v>
       </c>
       <c r="C225">
         <v>38.26375</v>
@@ -9614,7 +9614,7 @@
         <v>0.325</v>
       </c>
       <c r="E225">
-        <v>62.52631578947368</v>
+        <v>73.51578947368422</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.5818365</v>
+        <v>0.727295625</v>
       </c>
       <c r="C226">
         <v>38.52374999999999</v>
@@ -9655,7 +9655,7 @@
         <v>1.25</v>
       </c>
       <c r="E226">
-        <v>62.52631578947368</v>
+        <v>73.51578947368422</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -9687,7 +9687,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.6056522999999999</v>
+        <v>0.7570653749999999</v>
       </c>
       <c r="C227">
         <v>26.81541666666666</v>
@@ -9696,7 +9696,7 @@
         <v>1.675</v>
       </c>
       <c r="E227">
-        <v>45.68421052631579</v>
+        <v>56.67368421052633</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.6054164999999999</v>
+        <v>0.7567706249999999</v>
       </c>
       <c r="C228">
         <v>28.11458333333333</v>
@@ -9737,7 +9737,7 @@
         <v>2.025</v>
       </c>
       <c r="E228">
-        <v>28.8421052631579</v>
+        <v>39.83157894736844</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -9769,7 +9769,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.5952771</v>
+        <v>0.744096375</v>
       </c>
       <c r="C229">
         <v>42.89208333333332</v>
@@ -9778,7 +9778,7 @@
         <v>2.375</v>
       </c>
       <c r="E229">
-        <v>28.8421052631579</v>
+        <v>39.83157894736844</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -9810,7 +9810,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.5962202999999999</v>
+        <v>0.7452753749999999</v>
       </c>
       <c r="C230">
         <v>33.0175</v>
@@ -9819,13 +9819,13 @@
         <v>2.95</v>
       </c>
       <c r="E230">
-        <v>12</v>
+        <v>25.6</v>
       </c>
       <c r="F230">
         <v>0</v>
       </c>
       <c r="G230">
-        <v>16</v>
+        <v>13.52000000000002</v>
       </c>
       <c r="H230">
         <v>105.1</v>
@@ -9837,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="K230">
-        <v>19.9675</v>
+        <v>22.44749999999998</v>
       </c>
       <c r="L230">
         <v>0</v>
@@ -9851,7 +9851,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.5939802</v>
+        <v>0.7424752499999999</v>
       </c>
       <c r="C231">
         <v>31.03875</v>
@@ -9860,7 +9860,7 @@
         <v>3.025</v>
       </c>
       <c r="E231">
-        <v>12</v>
+        <v>25.6</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.5904431999999999</v>
+        <v>0.738054</v>
       </c>
       <c r="C232">
         <v>32.87291666666667</v>
@@ -9901,7 +9901,7 @@
         <v>3.924999999999999</v>
       </c>
       <c r="E232">
-        <v>12</v>
+        <v>25.6</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -9933,7 +9933,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.5890283999999999</v>
+        <v>0.7362854999999999</v>
       </c>
       <c r="C233">
         <v>32.71125</v>
@@ -9942,7 +9942,7 @@
         <v>5.175000000000001</v>
       </c>
       <c r="E233">
-        <v>12</v>
+        <v>25.6</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.5929190999999999</v>
+        <v>0.7411488749999999</v>
       </c>
       <c r="C234">
         <v>42.12124999999999</v>
@@ -9983,7 +9983,7 @@
         <v>8.774999999999999</v>
       </c>
       <c r="E234">
-        <v>12</v>
+        <v>25.6</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -10015,7 +10015,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.5797143</v>
+        <v>0.724642875</v>
       </c>
       <c r="C235">
         <v>44.18666666666667</v>
@@ -10024,7 +10024,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="E235">
-        <v>12</v>
+        <v>25.6</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -10056,7 +10056,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.5911506</v>
+        <v>0.7389382499999999</v>
       </c>
       <c r="C236">
         <v>41.17625</v>
@@ -10065,7 +10065,7 @@
         <v>7.9</v>
       </c>
       <c r="E236">
-        <v>12</v>
+        <v>25.6</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -10097,7 +10097,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.5852556</v>
+        <v>0.7315695</v>
       </c>
       <c r="C237">
         <v>42.54208333333332</v>
@@ -10106,7 +10106,7 @@
         <v>8.024999999999999</v>
       </c>
       <c r="E237">
-        <v>12</v>
+        <v>25.6</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -10138,7 +10138,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.5826618</v>
+        <v>0.72832725</v>
       </c>
       <c r="C238">
         <v>35.53958333333334</v>
@@ -10147,7 +10147,7 @@
         <v>9.175000000000001</v>
       </c>
       <c r="E238">
-        <v>12</v>
+        <v>25.6</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -10179,7 +10179,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.5523614999999999</v>
+        <v>0.6904518749999999</v>
       </c>
       <c r="C239">
         <v>36.28416666666667</v>
@@ -10188,7 +10188,7 @@
         <v>8.774999999999999</v>
       </c>
       <c r="E239">
-        <v>12</v>
+        <v>25.6</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -10220,7 +10220,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.529371</v>
+        <v>0.6617137500000001</v>
       </c>
       <c r="C240">
         <v>23.54</v>
@@ -10229,7 +10229,7 @@
         <v>8.149999999999999</v>
       </c>
       <c r="E240">
-        <v>12</v>
+        <v>25.6</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -10261,7 +10261,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.5059088999999999</v>
+        <v>0.6323861249999998</v>
       </c>
       <c r="C241">
         <v>25.49083333333333</v>
@@ -10270,7 +10270,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="E241">
-        <v>25.6</v>
+        <v>39.2</v>
       </c>
       <c r="F241">
         <v>16</v>
@@ -10302,7 +10302,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.4460156999999999</v>
+        <v>0.5575196249999999</v>
       </c>
       <c r="C242">
         <v>19.61666666666667</v>
@@ -10311,7 +10311,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="E242">
-        <v>39.2</v>
+        <v>52.8</v>
       </c>
       <c r="F242">
         <v>16</v>
@@ -10343,7 +10343,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.453915</v>
+        <v>0.5673937499999999</v>
       </c>
       <c r="C243">
         <v>16.90916666666666</v>
@@ -10352,7 +10352,7 @@
         <v>4.074999999999999</v>
       </c>
       <c r="E243">
-        <v>52.8</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F243">
         <v>16</v>
@@ -10384,7 +10384,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.4804424999999999</v>
+        <v>0.6005531249999999</v>
       </c>
       <c r="C244">
         <v>17.36375</v>
@@ -10393,7 +10393,7 @@
         <v>2.774999999999999</v>
       </c>
       <c r="E244">
-        <v>66.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="F244">
         <v>16</v>
@@ -10425,7 +10425,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.5241834</v>
+        <v>0.65522925</v>
       </c>
       <c r="C245">
         <v>21.04916666666666</v>
@@ -10437,7 +10437,7 @@
         <v>80</v>
       </c>
       <c r="F245">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -10452,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="K245">
-        <v>38.89916666666667</v>
+        <v>22.89916666666666</v>
       </c>
       <c r="L245">
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.5931549</v>
+        <v>0.7414436250000001</v>
       </c>
       <c r="C246">
         <v>19.5075</v>
@@ -10507,7 +10507,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.6128441999999998</v>
+        <v>0.7660552499999997</v>
       </c>
       <c r="C247">
         <v>25.94083333333334</v>
@@ -10548,7 +10548,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.6950204999999999</v>
+        <v>0.8687756249999999</v>
       </c>
       <c r="C248">
         <v>34.84541666666667</v>
@@ -10589,7 +10589,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.8260073999999999</v>
+        <v>1.03250925</v>
       </c>
       <c r="C249">
         <v>31.10041666666667</v>
@@ -10630,7 +10630,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.8479367999999999</v>
+        <v>1.059921</v>
       </c>
       <c r="C250">
         <v>30.535</v>
@@ -10671,7 +10671,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.8446355999999999</v>
+        <v>1.0557945</v>
       </c>
       <c r="C251">
         <v>33.14</v>
@@ -10712,7 +10712,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.8507663999999998</v>
+        <v>1.063458</v>
       </c>
       <c r="C252">
         <v>28.375</v>
@@ -10753,7 +10753,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.8831888999999998</v>
+        <v>1.103986125</v>
       </c>
       <c r="C253">
         <v>29.5025</v>
@@ -10794,7 +10794,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.8650323</v>
+        <v>1.081290375</v>
       </c>
       <c r="C254">
         <v>29.77333333333334</v>
@@ -10835,7 +10835,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.8688050999999999</v>
+        <v>1.086006375</v>
       </c>
       <c r="C255">
         <v>30.02666666666667</v>
@@ -10876,7 +10876,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.8703377999999999</v>
+        <v>1.08792225</v>
       </c>
       <c r="C256">
         <v>23.63083333333333</v>
@@ -10917,7 +10917,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.8374436999999999</v>
+        <v>1.046804625</v>
       </c>
       <c r="C257">
         <v>27.075</v>
@@ -10958,7 +10958,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.7414730999999999</v>
+        <v>0.9268413749999999</v>
       </c>
       <c r="C258">
         <v>35.03416666666666</v>
@@ -10999,7 +10999,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.7007975999999999</v>
+        <v>0.8759969999999999</v>
       </c>
       <c r="C259">
         <v>50.16375000000001</v>
@@ -11040,7 +11040,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.6980858999999999</v>
+        <v>0.8726073749999999</v>
       </c>
       <c r="C260">
         <v>57.49875</v>
@@ -11081,7 +11081,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.6389001</v>
+        <v>0.7986251249999999</v>
       </c>
       <c r="C261">
         <v>60.88833333333333</v>
@@ -11122,7 +11122,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.5845482</v>
+        <v>0.73068525</v>
       </c>
       <c r="C262">
         <v>43.94166666666667</v>
@@ -11163,7 +11163,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.5459949000000001</v>
+        <v>0.6824936250000001</v>
       </c>
       <c r="C263">
         <v>47.11583333333333</v>
@@ -11204,7 +11204,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.517581</v>
+        <v>0.6469762499999999</v>
       </c>
       <c r="C264">
         <v>30.39125</v>
@@ -11245,7 +11245,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.4952978999999999</v>
+        <v>0.6191223749999999</v>
       </c>
       <c r="C265">
         <v>28.0125</v>
@@ -11286,7 +11286,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.5300783999999999</v>
+        <v>0.6625979999999999</v>
       </c>
       <c r="C266">
         <v>30.19</v>
@@ -11327,7 +11327,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.5314931999999999</v>
+        <v>0.6643664999999999</v>
       </c>
       <c r="C267">
         <v>23.72625</v>
@@ -11368,7 +11368,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.5307858</v>
+        <v>0.6634822499999999</v>
       </c>
       <c r="C268">
         <v>30.03</v>
@@ -11409,7 +11409,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.5240655000000001</v>
+        <v>0.655081875</v>
       </c>
       <c r="C269">
         <v>34.5475</v>
@@ -11450,7 +11450,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.5201747999999999</v>
+        <v>0.6502184999999999</v>
       </c>
       <c r="C270">
         <v>35.31250000000001</v>
@@ -11491,7 +11491,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.5208822</v>
+        <v>0.65110275</v>
       </c>
       <c r="C271">
         <v>35.33458333333333</v>
@@ -11532,7 +11532,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.5180526</v>
+        <v>0.6475657499999999</v>
       </c>
       <c r="C272">
         <v>47.98875000000001</v>
@@ -11573,7 +11573,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.5478812999999999</v>
+        <v>0.6848516249999999</v>
       </c>
       <c r="C273">
         <v>46.72875000000001</v>
@@ -11614,7 +11614,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.5689853999999999</v>
+        <v>0.7112317499999998</v>
       </c>
       <c r="C274">
         <v>43.41041666666666</v>
@@ -11655,7 +11655,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.5841944999999999</v>
+        <v>0.7302431249999999</v>
       </c>
       <c r="C275">
         <v>45.12458333333332</v>
@@ -11696,7 +11696,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.6152021999999999</v>
+        <v>0.7690027499999998</v>
       </c>
       <c r="C276">
         <v>43.81625</v>
@@ -11737,7 +11737,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.6564671999999999</v>
+        <v>0.8205839999999999</v>
       </c>
       <c r="C277">
         <v>42.33125</v>
@@ -11778,7 +11778,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.7355780999999999</v>
+        <v>0.9194726249999998</v>
       </c>
       <c r="C278">
         <v>40.76666666666667</v>
@@ -11819,7 +11819,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.7787295</v>
+        <v>0.9734118749999999</v>
       </c>
       <c r="C279">
         <v>39.24375</v>
@@ -11860,7 +11860,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.8209376999999999</v>
+        <v>1.026172125</v>
       </c>
       <c r="C280">
         <v>33.2</v>
@@ -11901,7 +11901,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.8283654</v>
+        <v>1.03545675</v>
       </c>
       <c r="C281">
         <v>46.20125000000001</v>
@@ -11942,7 +11942,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.8157500999999998</v>
+        <v>1.019687625</v>
       </c>
       <c r="C282">
         <v>51.35375000000001</v>
@@ -11983,7 +11983,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.7676468999999999</v>
+        <v>0.9595586249999999</v>
       </c>
       <c r="C283">
         <v>52.52708333333332</v>
@@ -12024,7 +12024,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.7520840999999999</v>
+        <v>0.9401051249999999</v>
       </c>
       <c r="C284">
         <v>58.75916666666667</v>
@@ -12065,7 +12065,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.6870033</v>
+        <v>0.8587541249999999</v>
       </c>
       <c r="C285">
         <v>53.53166666666667</v>
@@ -12106,7 +12106,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.6345377999999999</v>
+        <v>0.7931722499999999</v>
       </c>
       <c r="C286">
         <v>53.21666666666665</v>
@@ -12147,7 +12147,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.5803037999999999</v>
+        <v>0.7253797499999999</v>
       </c>
       <c r="C287">
         <v>49.00416666666667</v>
@@ -12188,7 +12188,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.5667452999999999</v>
+        <v>0.7084316249999999</v>
       </c>
       <c r="C288">
         <v>39.99125000000001</v>
@@ -12229,7 +12229,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.5438727</v>
+        <v>0.679840875</v>
       </c>
       <c r="C289">
         <v>33.94333333333333</v>
@@ -12270,7 +12270,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.5858450999999999</v>
+        <v>0.7323063749999998</v>
       </c>
       <c r="C290">
         <v>29.93708333333333</v>
@@ -12311,7 +12311,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.5497677</v>
+        <v>0.6872096249999999</v>
       </c>
       <c r="C291">
         <v>30.00083333333333</v>
@@ -12352,7 +12352,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.51876</v>
+        <v>0.64845</v>
       </c>
       <c r="C292">
         <v>31.87833333333334</v>
@@ -12393,7 +12393,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.5007212999999999</v>
+        <v>0.6259016249999999</v>
       </c>
       <c r="C293">
         <v>35.57499999999999</v>
@@ -12434,7 +12434,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.5015466</v>
+        <v>0.62693325</v>
       </c>
       <c r="C294">
         <v>35.56833333333334</v>
@@ -12475,7 +12475,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.5132187</v>
+        <v>0.641523375</v>
       </c>
       <c r="C295">
         <v>36.23125</v>
@@ -12516,7 +12516,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.5378598</v>
+        <v>0.67232475</v>
       </c>
       <c r="C296">
         <v>41.49541666666666</v>
@@ -12557,7 +12557,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.6036480000000001</v>
+        <v>0.7545600000000001</v>
       </c>
       <c r="C297">
         <v>46.31500000000001</v>
@@ -12598,7 +12598,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.6829947</v>
+        <v>0.853743375</v>
       </c>
       <c r="C298">
         <v>53.79375</v>
@@ -12639,7 +12639,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.6976142999999999</v>
+        <v>0.8720178749999998</v>
       </c>
       <c r="C299">
         <v>49.83000000000001</v>
@@ -12680,7 +12680,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.6980858999999999</v>
+        <v>0.8726073749999999</v>
       </c>
       <c r="C300">
         <v>44.92958333333333</v>
@@ -12721,7 +12721,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.6881822999999999</v>
+        <v>0.8602278749999999</v>
       </c>
       <c r="C301">
         <v>44.06958333333333</v>
@@ -12762,7 +12762,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.6625979999999999</v>
+        <v>0.8282474999999999</v>
       </c>
       <c r="C302">
         <v>43.59583333333334</v>
@@ -12803,7 +12803,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.6644844</v>
+        <v>0.8306055</v>
       </c>
       <c r="C303">
         <v>37.03125</v>
@@ -12844,7 +12844,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.6976142999999999</v>
+        <v>0.8720178749999998</v>
       </c>
       <c r="C304">
         <v>37.73291666666667</v>
@@ -12885,7 +12885,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.7749566999999999</v>
+        <v>0.9686958749999999</v>
       </c>
       <c r="C305">
         <v>46.89375</v>
@@ -12926,7 +12926,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.7744850999999999</v>
+        <v>0.9681063749999999</v>
       </c>
       <c r="C306">
         <v>39.37333333333333</v>
@@ -12967,7 +12967,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.7319232</v>
+        <v>0.9149039999999999</v>
       </c>
       <c r="C307">
         <v>48.02083333333334</v>
@@ -13008,7 +13008,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.6610653</v>
+        <v>0.8263316249999999</v>
       </c>
       <c r="C308">
         <v>38.01083333333334</v>
@@ -13049,7 +13049,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.6577641</v>
+        <v>0.822205125</v>
       </c>
       <c r="C309">
         <v>37.2375</v>
@@ -13090,7 +13090,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.6636590999999999</v>
+        <v>0.8295738749999999</v>
       </c>
       <c r="C310">
         <v>42.28333333333335</v>
@@ -13131,7 +13131,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.6973784999999999</v>
+        <v>0.8717231249999999</v>
       </c>
       <c r="C311">
         <v>41.64541666666667</v>
@@ -13172,7 +13172,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.7399403999999999</v>
+        <v>0.9249255</v>
       </c>
       <c r="C312">
         <v>39.82708333333333</v>
@@ -13213,7 +13213,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.7268534999999999</v>
+        <v>0.9085668749999999</v>
       </c>
       <c r="C313">
         <v>28.88875</v>
@@ -13254,7 +13254,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.7547957999999999</v>
+        <v>0.9434947499999999</v>
       </c>
       <c r="C314">
         <v>27.3575</v>
@@ -13295,7 +13295,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.7322769</v>
+        <v>0.915346125</v>
       </c>
       <c r="C315">
         <v>27.9175</v>
@@ -13336,7 +13336,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.7419446999999999</v>
+        <v>0.9274308749999999</v>
       </c>
       <c r="C316">
         <v>34.23541666666667</v>
@@ -13377,7 +13377,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.7546779</v>
+        <v>0.943347375</v>
       </c>
       <c r="C317">
         <v>34.62416666666666</v>
@@ -13418,7 +13418,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.7624593</v>
+        <v>0.9530741249999999</v>
       </c>
       <c r="C318">
         <v>42.74875</v>
@@ -13459,7 +13459,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.7687079999999999</v>
+        <v>0.960885</v>
       </c>
       <c r="C319">
         <v>40.17958333333334</v>
@@ -13500,7 +13500,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.7935848999999999</v>
+        <v>0.9919811249999999</v>
       </c>
       <c r="C320">
         <v>39.28125000000001</v>
@@ -13541,7 +13541,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.8448713999999998</v>
+        <v>1.05608925</v>
       </c>
       <c r="C321">
         <v>49.26958333333333</v>
@@ -13582,7 +13582,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.9047645999999998</v>
+        <v>1.13095575</v>
       </c>
       <c r="C322">
         <v>51.77125000000001</v>
@@ -13623,7 +13623,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.9566406</v>
+        <v>1.19580075</v>
       </c>
       <c r="C323">
         <v>47.01958333333333</v>
@@ -13664,7 +13664,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.9506276999999999</v>
+        <v>1.188284625</v>
       </c>
       <c r="C324">
         <v>46.18458333333334</v>
@@ -13705,7 +13705,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.9648936</v>
+        <v>1.206117</v>
       </c>
       <c r="C325">
         <v>54.00958333333332</v>
@@ -13746,7 +13746,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.9477981</v>
+        <v>1.184747625</v>
       </c>
       <c r="C326">
         <v>57.22583333333334</v>
@@ -13787,7 +13787,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.9083016</v>
+        <v>1.135377</v>
       </c>
       <c r="C327">
         <v>46.96666666666667</v>
@@ -13828,7 +13828,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.9331785</v>
+        <v>1.166473125</v>
       </c>
       <c r="C328">
         <v>48.38041666666668</v>
@@ -13869,7 +13869,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.9447326999999999</v>
+        <v>1.180915875</v>
       </c>
       <c r="C329">
         <v>39.76041666666666</v>
@@ -13910,7 +13910,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.9138429</v>
+        <v>1.142303625</v>
       </c>
       <c r="C330">
         <v>51.04</v>
@@ -13951,7 +13951,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.8848394999999999</v>
+        <v>1.106049375</v>
       </c>
       <c r="C331">
         <v>48.27666666666667</v>
@@ -13992,7 +13992,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.8825993999999999</v>
+        <v>1.10324925</v>
       </c>
       <c r="C332">
         <v>47.415</v>
@@ -14033,7 +14033,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.8719883999999999</v>
+        <v>1.0899855</v>
       </c>
       <c r="C333">
         <v>53.13666666666667</v>
@@ -14074,7 +14074,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.8708094</v>
+        <v>1.08851175</v>
       </c>
       <c r="C334">
         <v>41.11458333333333</v>
@@ -14115,7 +14115,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.868923</v>
+        <v>1.08615375</v>
       </c>
       <c r="C335">
         <v>30.64666666666666</v>
@@ -14156,7 +14156,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.8626742999999999</v>
+        <v>1.078342875</v>
       </c>
       <c r="C336">
         <v>30.56333333333333</v>
@@ -14197,7 +14197,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.7886330999999999</v>
+        <v>0.9857913749999998</v>
       </c>
       <c r="C337">
         <v>29.03583333333334</v>
@@ -14238,7 +14238,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.8211735</v>
+        <v>1.026466875</v>
       </c>
       <c r="C338">
         <v>28.66708333333333</v>
@@ -14279,7 +14279,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.7908731999999998</v>
+        <v>0.9885914999999998</v>
       </c>
       <c r="C339">
         <v>32.08374999999999</v>
@@ -14320,7 +14320,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.7779041999999999</v>
+        <v>0.9723802499999999</v>
       </c>
       <c r="C340">
         <v>29.14458333333333</v>
@@ -14361,7 +14361,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.7549136999999999</v>
+        <v>0.9436421249999999</v>
       </c>
       <c r="C341">
         <v>36.85541666666666</v>
@@ -14402,7 +14402,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.7655247000000001</v>
+        <v>0.9569058750000001</v>
       </c>
       <c r="C342">
         <v>32.81</v>
@@ -14443,7 +14443,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.8320202999999999</v>
+        <v>1.040025375</v>
       </c>
       <c r="C343">
         <v>37.4175</v>
@@ -14484,7 +14484,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.9426105</v>
+        <v>1.178263125</v>
       </c>
       <c r="C344">
         <v>40.06375</v>
@@ -14525,7 +14525,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.9884736</v>
+        <v>1.235592</v>
       </c>
       <c r="C345">
         <v>45.83708333333335</v>
@@ -14566,7 +14566,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>1.170747</v>
+        <v>1.46343375</v>
       </c>
       <c r="C346">
         <v>44.51291666666666</v>
@@ -14607,7 +14607,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>1.1788821</v>
+        <v>1.473602625</v>
       </c>
       <c r="C347">
         <v>36.88249999999999</v>
@@ -14648,7 +14648,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>1.1186352</v>
+        <v>1.398294</v>
       </c>
       <c r="C348">
         <v>38.61749999999999</v>
@@ -14689,7 +14689,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>1.0641654</v>
+        <v>1.33020675</v>
       </c>
       <c r="C349">
         <v>41.24999999999999</v>
@@ -14730,7 +14730,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>1.006866</v>
+        <v>1.2585825</v>
       </c>
       <c r="C350">
         <v>42.77875</v>
@@ -14771,7 +14771,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.9685485</v>
+        <v>1.210685625</v>
       </c>
       <c r="C351">
         <v>35.535</v>
@@ -14812,7 +14812,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>1.0007352</v>
+        <v>1.250919</v>
       </c>
       <c r="C352">
         <v>34.96333333333333</v>
@@ -14853,7 +14853,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>1.0544976</v>
+        <v>1.318122</v>
       </c>
       <c r="C353">
         <v>32.43624999999999</v>
@@ -14894,7 +14894,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>1.1438658</v>
+        <v>1.42983225</v>
       </c>
       <c r="C354">
         <v>33.83916666666667</v>
@@ -14903,13 +14903,13 @@
         <v>8.774999999999999</v>
       </c>
       <c r="E354">
-        <v>45.68421052631579</v>
+        <v>46.31578947368422</v>
       </c>
       <c r="F354">
         <v>0</v>
       </c>
       <c r="G354">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H354">
         <v>91.375</v>
@@ -14921,7 +14921,7 @@
         <v>8.774999999999999</v>
       </c>
       <c r="K354">
-        <v>33.23916666666667</v>
+        <v>33.83916666666667</v>
       </c>
       <c r="L354">
         <v>0</v>
@@ -14935,7 +14935,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>1.1871351</v>
+        <v>1.483918875</v>
       </c>
       <c r="C355">
         <v>38.21833333333333</v>
@@ -14944,7 +14944,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="E355">
-        <v>28.8421052631579</v>
+        <v>29.47368421052633</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -14976,7 +14976,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>1.1715723</v>
+        <v>1.464465375</v>
       </c>
       <c r="C356">
         <v>47.49</v>
@@ -14985,7 +14985,7 @@
         <v>7.9</v>
       </c>
       <c r="E356">
-        <v>12</v>
+        <v>12.63157894736843</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -15017,7 +15017,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>1.1115612</v>
+        <v>1.3894515</v>
       </c>
       <c r="C357">
         <v>50.20208333333333</v>
@@ -15026,7 +15026,7 @@
         <v>8.024999999999999</v>
       </c>
       <c r="E357">
-        <v>12</v>
+        <v>12.63157894736843</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -15058,7 +15058,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>1.1199321</v>
+        <v>1.399915125</v>
       </c>
       <c r="C358">
         <v>48.36</v>
@@ -15067,7 +15067,7 @@
         <v>9.175000000000001</v>
       </c>
       <c r="E358">
-        <v>12</v>
+        <v>12.63157894736843</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -15099,7 +15099,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>1.0458909</v>
+        <v>1.307363625</v>
       </c>
       <c r="C359">
         <v>51.515</v>
@@ -15108,7 +15108,7 @@
         <v>8.774999999999999</v>
       </c>
       <c r="E359">
-        <v>12</v>
+        <v>12.63157894736843</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -15140,7 +15140,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>1.024551</v>
+        <v>1.28068875</v>
       </c>
       <c r="C360">
         <v>37.11583333333333</v>
@@ -15149,7 +15149,7 @@
         <v>8.149999999999999</v>
       </c>
       <c r="E360">
-        <v>12</v>
+        <v>12.63157894736843</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -15181,7 +15181,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>1.0108746</v>
+        <v>1.26359325</v>
       </c>
       <c r="C361">
         <v>31.75166666666667</v>
@@ -15190,7 +15190,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="E361">
-        <v>12</v>
+        <v>12.63157894736843</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -15222,7 +15222,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.9690200999999999</v>
+        <v>1.211275125</v>
       </c>
       <c r="C362">
         <v>27.21</v>
@@ -15234,7 +15234,7 @@
         <v>25.6</v>
       </c>
       <c r="F362">
-        <v>16</v>
+        <v>15.25696594427244</v>
       </c>
       <c r="G362">
         <v>0</v>
@@ -15249,7 +15249,7 @@
         <v>0</v>
       </c>
       <c r="K362">
-        <v>48.985</v>
+        <v>48.24196594427244</v>
       </c>
       <c r="L362">
         <v>0</v>
@@ -15263,7 +15263,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.9597060000000001</v>
+        <v>1.1996325</v>
       </c>
       <c r="C363">
         <v>33.88208333333334</v>
@@ -15304,7 +15304,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.9440253</v>
+        <v>1.180031625</v>
       </c>
       <c r="C364">
         <v>27.77416666666666</v>
@@ -15345,7 +15345,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.9226854</v>
+        <v>1.15335675</v>
       </c>
       <c r="C365">
         <v>34.14166666666667</v>
@@ -15386,7 +15386,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.9147860999999999</v>
+        <v>1.143482625</v>
       </c>
       <c r="C366">
         <v>39.68291666666667</v>
@@ -15427,7 +15427,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.9838755</v>
+        <v>1.229844375</v>
       </c>
       <c r="C367">
         <v>39.77583333333334</v>
@@ -15468,7 +15468,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>1.0914003</v>
+        <v>1.364250375</v>
       </c>
       <c r="C368">
         <v>46.4125</v>
@@ -15509,7 +15509,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>1.1814759</v>
+        <v>1.476844875</v>
       </c>
       <c r="C369">
         <v>51.23333333333333</v>
@@ -15550,7 +15550,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>1.5190236</v>
+        <v>1.8987795</v>
       </c>
       <c r="C370">
         <v>58.03416666666666</v>
@@ -15591,7 +15591,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>1.4862474</v>
+        <v>1.85780925</v>
       </c>
       <c r="C371">
         <v>56.08</v>
@@ -15632,7 +15632,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>1.2822804</v>
+        <v>1.6028505</v>
       </c>
       <c r="C372">
         <v>56.01583333333333</v>
@@ -15673,7 +15673,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>1.1881962</v>
+        <v>1.48524525</v>
       </c>
       <c r="C373">
         <v>67.21458333333334</v>
@@ -15714,7 +15714,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>1.1840697</v>
+        <v>1.480087125</v>
       </c>
       <c r="C374">
         <v>65.80666666666666</v>
@@ -15755,7 +15755,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>1.1159235</v>
+        <v>1.394904375</v>
       </c>
       <c r="C375">
         <v>60.21708333333333</v>
@@ -15796,7 +15796,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>1.1237049</v>
+        <v>1.404631125</v>
       </c>
       <c r="C376">
         <v>57.7525</v>
@@ -15837,7 +15837,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>1.1975103</v>
+        <v>1.496887875</v>
       </c>
       <c r="C377">
         <v>58.39041666666667</v>
@@ -15878,7 +15878,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>1.2752064</v>
+        <v>1.594008</v>
       </c>
       <c r="C378">
         <v>71.09375</v>
@@ -15919,7 +15919,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>1.2142521</v>
+        <v>1.517815125</v>
       </c>
       <c r="C379">
         <v>72.07291666666667</v>
@@ -15960,7 +15960,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>1.4574798</v>
+        <v>1.82184975</v>
       </c>
       <c r="C380">
         <v>81.14500000000002</v>
@@ -16001,7 +16001,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>1.3177683</v>
+        <v>1.647210375</v>
       </c>
       <c r="C381">
         <v>69.0625</v>
@@ -16042,7 +16042,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>1.1258271</v>
+        <v>1.407283875</v>
       </c>
       <c r="C382">
         <v>69.27208333333334</v>
@@ -16083,7 +16083,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>1.0164159</v>
+        <v>1.270519875</v>
       </c>
       <c r="C383">
         <v>61.66583333333333</v>
@@ -16124,7 +16124,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.9672516000000001</v>
+        <v>1.2090645</v>
       </c>
       <c r="C384">
         <v>48.03625000000001</v>
@@ -16165,7 +16165,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.9159650999999999</v>
+        <v>1.144956375</v>
       </c>
       <c r="C385">
         <v>41.20708333333334</v>
@@ -16206,7 +16206,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.8240030999999999</v>
+        <v>1.030003875</v>
       </c>
       <c r="C386">
         <v>33.26666666666667</v>
@@ -16247,7 +16247,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.8177543999999999</v>
+        <v>1.022193</v>
       </c>
       <c r="C387">
         <v>39.38833333333334</v>
@@ -16288,7 +16288,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.8072612999999998</v>
+        <v>1.009076625</v>
       </c>
       <c r="C388">
         <v>38.53041666666667</v>
@@ -16329,7 +16329,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.7965323999999999</v>
+        <v>0.9956654999999999</v>
       </c>
       <c r="C389">
         <v>39.41375</v>
@@ -16370,7 +16370,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.7935848999999999</v>
+        <v>0.9919811249999999</v>
       </c>
       <c r="C390">
         <v>40.235</v>
@@ -16411,7 +16411,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.7932311999999999</v>
+        <v>0.9915389999999999</v>
       </c>
       <c r="C391">
         <v>46.12333333333333</v>
@@ -16452,7 +16452,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.8329635</v>
+        <v>1.041204375</v>
       </c>
       <c r="C392">
         <v>58.02708333333333</v>
@@ -16493,7 +16493,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.9424925999999999</v>
+        <v>1.17811575</v>
       </c>
       <c r="C393">
         <v>68.81583333333333</v>
@@ -16534,7 +16534,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>1.1241765</v>
+        <v>1.405220625</v>
       </c>
       <c r="C394">
         <v>66.59958333333334</v>
@@ -16575,7 +16575,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>1.2128373</v>
+        <v>1.516046625</v>
       </c>
       <c r="C395">
         <v>63.00749999999999</v>
@@ -16616,7 +16616,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>1.2587004</v>
+        <v>1.5733755</v>
       </c>
       <c r="C396">
         <v>64.42416666666666</v>
@@ -16657,7 +16657,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>1.1351412</v>
+        <v>1.4189265</v>
       </c>
       <c r="C397">
         <v>54.16458333333333</v>
@@ -16698,7 +16698,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.9900062999999999</v>
+        <v>1.237507875</v>
       </c>
       <c r="C398">
         <v>57.89833333333333</v>
@@ -16739,7 +16739,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.9252792</v>
+        <v>1.156599</v>
       </c>
       <c r="C399">
         <v>54.86958333333335</v>
@@ -16780,7 +16780,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.8396837999999999</v>
+        <v>1.04960475</v>
       </c>
       <c r="C400">
         <v>52.54958333333334</v>
@@ -16821,7 +16821,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.7952355</v>
+        <v>0.994044375</v>
       </c>
       <c r="C401">
         <v>47.5475</v>
@@ -16862,7 +16862,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.8221167</v>
+        <v>1.027645875</v>
       </c>
       <c r="C402">
         <v>54.585</v>
@@ -16903,7 +16903,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.8117414999999999</v>
+        <v>1.014676875</v>
       </c>
       <c r="C403">
         <v>71.25000000000001</v>
@@ -16944,7 +16944,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.7878077999999998</v>
+        <v>0.9847597499999998</v>
       </c>
       <c r="C404">
         <v>67.79583333333333</v>
@@ -16985,7 +16985,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.8317844999999998</v>
+        <v>1.039730625</v>
       </c>
       <c r="C405">
         <v>58.60291666666667</v>
@@ -17026,7 +17026,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.8118593999999999</v>
+        <v>1.01482425</v>
       </c>
       <c r="C406">
         <v>58.71541666666667</v>
@@ -17067,7 +17067,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.8059643999999999</v>
+        <v>1.0074555</v>
       </c>
       <c r="C407">
         <v>56.90583333333333</v>
@@ -17108,7 +17108,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.7988904</v>
+        <v>0.998613</v>
       </c>
       <c r="C408">
         <v>48.24791666666666</v>
@@ -17149,7 +17149,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.7704764999999999</v>
+        <v>0.9630956249999999</v>
       </c>
       <c r="C409">
         <v>38.69208333333334</v>
@@ -17190,7 +17190,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.7773147</v>
+        <v>0.971643375</v>
       </c>
       <c r="C410">
         <v>37.12166666666666</v>
@@ -17231,7 +17231,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.7559747999999999</v>
+        <v>0.9449684999999999</v>
       </c>
       <c r="C411">
         <v>37.10833333333333</v>
@@ -17272,7 +17272,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.7421804999999999</v>
+        <v>0.9277256249999999</v>
       </c>
       <c r="C412">
         <v>38.22166666666666</v>
@@ -17313,7 +17313,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.7327484999999999</v>
+        <v>0.9159356249999999</v>
       </c>
       <c r="C413">
         <v>43.69166666666666</v>
@@ -17354,7 +17354,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.6422013</v>
+        <v>0.802751625</v>
       </c>
       <c r="C414">
         <v>40.06291666666667</v>
@@ -17395,7 +17395,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.6841736999999999</v>
+        <v>0.8552171249999998</v>
       </c>
       <c r="C415">
         <v>43.98958333333333</v>
@@ -17436,7 +17436,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.7750745999999999</v>
+        <v>0.9688432499999999</v>
       </c>
       <c r="C416">
         <v>50.93791666666666</v>
@@ -17477,7 +17477,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.8131562999999998</v>
+        <v>1.016445375</v>
       </c>
       <c r="C417">
         <v>58.8475</v>
@@ -17518,7 +17518,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.8623205999999999</v>
+        <v>1.07790075</v>
       </c>
       <c r="C418">
         <v>47.62333333333333</v>
@@ -17559,7 +17559,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.8486442</v>
+        <v>1.06080525</v>
       </c>
       <c r="C419">
         <v>46.04166666666667</v>
@@ -17600,7 +17600,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.8204661</v>
+        <v>1.025582625</v>
       </c>
       <c r="C420">
         <v>43.65375</v>
@@ -17641,7 +17641,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.8053749</v>
+        <v>1.006718625</v>
       </c>
       <c r="C421">
         <v>57.66875</v>
@@ -17682,7 +17682,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.7919343</v>
+        <v>0.9899178749999999</v>
       </c>
       <c r="C422">
         <v>49.09166666666666</v>
@@ -17723,7 +17723,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.7750745999999999</v>
+        <v>0.9688432499999999</v>
       </c>
       <c r="C423">
         <v>39.51458333333334</v>
@@ -17764,7 +17764,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.7526735999999999</v>
+        <v>0.940842</v>
       </c>
       <c r="C424">
         <v>45.965</v>
@@ -17805,7 +17805,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.7534989</v>
+        <v>0.9418736249999999</v>
       </c>
       <c r="C425">
         <v>45.54708333333333</v>
@@ -17846,7 +17846,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.7642277999999999</v>
+        <v>0.9552847499999999</v>
       </c>
       <c r="C426">
         <v>47.12208333333334</v>
@@ -17887,7 +17887,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.7626951</v>
+        <v>0.953368875</v>
       </c>
       <c r="C427">
         <v>64.69791666666667</v>
@@ -17928,7 +17928,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.7572717</v>
+        <v>0.946589625</v>
       </c>
       <c r="C428">
         <v>64.58958333333332</v>
@@ -17969,7 +17969,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.7285041</v>
+        <v>0.910630125</v>
       </c>
       <c r="C429">
         <v>67.89833333333334</v>
@@ -18010,7 +18010,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.6954920999999999</v>
+        <v>0.869365125</v>
       </c>
       <c r="C430">
         <v>66.60625</v>
@@ -18051,7 +18051,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.743949</v>
+        <v>0.9299362499999999</v>
       </c>
       <c r="C431">
         <v>51.00541666666668</v>
@@ -18092,7 +18092,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.7040988</v>
+        <v>0.8801235000000001</v>
       </c>
       <c r="C432">
         <v>36.12541666666667</v>
@@ -18133,7 +18133,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.6995007</v>
+        <v>0.8743758749999999</v>
       </c>
       <c r="C433">
         <v>29.09625</v>
@@ -18174,7 +18174,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.6240446999999999</v>
+        <v>0.7800558749999998</v>
       </c>
       <c r="C434">
         <v>28.56958333333333</v>
@@ -18215,7 +18215,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.60129</v>
+        <v>0.7516125</v>
       </c>
       <c r="C435">
         <v>24.43083333333333</v>
@@ -18256,7 +18256,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.5884388999999999</v>
+        <v>0.7355486249999998</v>
       </c>
       <c r="C436">
         <v>32.25791666666667</v>
@@ -18297,7 +18297,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.5873777999999999</v>
+        <v>0.73422225</v>
       </c>
       <c r="C437">
         <v>27.14791666666667</v>
@@ -18338,7 +18338,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.5999930999999999</v>
+        <v>0.7499913749999999</v>
       </c>
       <c r="C438">
         <v>31.44208333333333</v>
@@ -18379,7 +18379,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.6407864999999999</v>
+        <v>0.8009831249999999</v>
       </c>
       <c r="C439">
         <v>38.00458333333333</v>
@@ -18420,7 +18420,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.6266384999999999</v>
+        <v>0.7832981249999998</v>
       </c>
       <c r="C440">
         <v>40.55625000000001</v>
@@ -18461,7 +18461,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.7298009999999999</v>
+        <v>0.91225125</v>
       </c>
       <c r="C441">
         <v>42.23541666666667</v>
@@ -18502,7 +18502,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.7783758</v>
+        <v>0.97296975</v>
       </c>
       <c r="C442">
         <v>44.56541666666667</v>
@@ -18543,7 +18543,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.7938206999999998</v>
+        <v>0.9922758749999998</v>
       </c>
       <c r="C443">
         <v>40.89541666666668</v>
@@ -18584,7 +18584,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.8054927999999999</v>
+        <v>1.006866</v>
       </c>
       <c r="C444">
         <v>44.97958333333334</v>
@@ -18625,7 +18625,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.8504126999999999</v>
+        <v>1.063015875</v>
       </c>
       <c r="C445">
         <v>46.06541666666666</v>
@@ -18666,7 +18666,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.8794161</v>
+        <v>1.099270125</v>
       </c>
       <c r="C446">
         <v>44.35916666666667</v>
@@ -18707,7 +18707,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.8860185</v>
+        <v>1.107523125</v>
       </c>
       <c r="C447">
         <v>43.37416666666666</v>
@@ -18748,7 +18748,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.9067688999999999</v>
+        <v>1.133461125</v>
       </c>
       <c r="C448">
         <v>43.40791666666667</v>
@@ -18789,7 +18789,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.9450863999999999</v>
+        <v>1.181358</v>
       </c>
       <c r="C449">
         <v>40.58958333333334</v>
@@ -18830,7 +18830,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>1.0579167</v>
+        <v>1.322395875</v>
       </c>
       <c r="C450">
         <v>54.05291666666666</v>
@@ -18871,7 +18871,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>1.2566961</v>
+        <v>1.570870125</v>
       </c>
       <c r="C451">
         <v>50.37291666666665</v>
@@ -18912,7 +18912,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>1.2790971</v>
+        <v>1.598871375</v>
       </c>
       <c r="C452">
         <v>55.94541666666667</v>
@@ -18953,7 +18953,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>1.003329</v>
+        <v>1.25416125</v>
       </c>
       <c r="C453">
         <v>51.10166666666667</v>
@@ -18994,7 +18994,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.8939177999999999</v>
+        <v>1.11739725</v>
       </c>
       <c r="C454">
         <v>44.10041666666667</v>
@@ -19035,7 +19035,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.8607879000000001</v>
+        <v>1.075984875</v>
       </c>
       <c r="C455">
         <v>39.55958333333334</v>
@@ -19076,7 +19076,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.8334350999999999</v>
+        <v>1.041793875</v>
       </c>
       <c r="C456">
         <v>25.565</v>
@@ -19117,7 +19117,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.7862751</v>
+        <v>0.982843875</v>
       </c>
       <c r="C457">
         <v>24.50291666666667</v>
@@ -19158,7 +19158,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.7972397999999999</v>
+        <v>0.9965497499999999</v>
       </c>
       <c r="C458">
         <v>22.5525</v>
@@ -19199,7 +19199,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.7664679</v>
+        <v>0.9580848749999999</v>
       </c>
       <c r="C459">
         <v>19.53</v>
@@ -19240,7 +19240,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.7675289999999999</v>
+        <v>0.9594112499999998</v>
       </c>
       <c r="C460">
         <v>25.09666666666667</v>
@@ -19281,7 +19281,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.7467786</v>
+        <v>0.9334732499999999</v>
       </c>
       <c r="C461">
         <v>18.1975</v>
@@ -19322,7 +19322,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.7471322999999999</v>
+        <v>0.9339153749999998</v>
       </c>
       <c r="C462">
         <v>28.81541666666667</v>
@@ -19363,7 +19363,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.7458353999999999</v>
+        <v>0.9322942499999999</v>
       </c>
       <c r="C463">
         <v>21.76458333333333</v>
@@ -19404,7 +19404,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.7598655</v>
+        <v>0.949831875</v>
       </c>
       <c r="C464">
         <v>32.63416666666666</v>
@@ -19445,7 +19445,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.7955892</v>
+        <v>0.9944865000000001</v>
       </c>
       <c r="C465">
         <v>35.40000000000001</v>
@@ -19486,7 +19486,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>0.8352035999999999</v>
+        <v>1.0440045</v>
       </c>
       <c r="C466">
         <v>40.95375000000001</v>
@@ -19527,7 +19527,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.8851931999999999</v>
+        <v>1.1064915</v>
       </c>
       <c r="C467">
         <v>51.38916666666668</v>
@@ -19568,7 +19568,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>0.8673902999999999</v>
+        <v>1.084237875</v>
       </c>
       <c r="C468">
         <v>53.92166666666667</v>
@@ -19609,7 +19609,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.8548929000000001</v>
+        <v>1.068616125</v>
       </c>
       <c r="C469">
         <v>58.61833333333333</v>
@@ -19650,7 +19650,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.8223524999999999</v>
+        <v>1.027940625</v>
       </c>
       <c r="C470">
         <v>55.32958333333335</v>
@@ -19691,7 +19691,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.7955892</v>
+        <v>0.9944865000000001</v>
       </c>
       <c r="C471">
         <v>44.35124999999999</v>
@@ -19732,7 +19732,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.7411193999999999</v>
+        <v>0.9263992499999998</v>
       </c>
       <c r="C472">
         <v>43.42958333333334</v>
@@ -19773,7 +19773,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.6759206999999999</v>
+        <v>0.8449008749999999</v>
       </c>
       <c r="C473">
         <v>41.58583333333333</v>
@@ -19814,7 +19814,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.5628546</v>
+        <v>0.70356825</v>
       </c>
       <c r="C474">
         <v>44.7025</v>
@@ -19855,7 +19855,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0.5294888999999999</v>
+        <v>0.6618611249999999</v>
       </c>
       <c r="C475">
         <v>46.58625000000001</v>
@@ -19896,7 +19896,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0.5172272999999999</v>
+        <v>0.646534125</v>
       </c>
       <c r="C476">
         <v>43.44666666666668</v>
@@ -19937,7 +19937,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>0.5074415999999999</v>
+        <v>0.6343019999999999</v>
       </c>
       <c r="C477">
         <v>43.81333333333334</v>
@@ -19978,7 +19978,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.491643</v>
+        <v>0.61455375</v>
       </c>
       <c r="C478">
         <v>33.73041666666667</v>
@@ -20019,7 +20019,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.4651155</v>
+        <v>0.581394375</v>
       </c>
       <c r="C479">
         <v>41.74750000000001</v>
@@ -20060,7 +20060,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.4376447999999999</v>
+        <v>0.547056</v>
       </c>
       <c r="C480">
         <v>29.83916666666667</v>
@@ -20101,7 +20101,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>0.4218462</v>
+        <v>0.52730775</v>
       </c>
       <c r="C481">
         <v>24.28583333333333</v>
@@ -20142,7 +20142,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0.4100562</v>
+        <v>0.51257025</v>
       </c>
       <c r="C482">
         <v>20.70125</v>
@@ -20183,7 +20183,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.4094667</v>
+        <v>0.5118333749999999</v>
       </c>
       <c r="C483">
         <v>18.65333333333333</v>
@@ -20224,7 +20224,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>0.4084056</v>
+        <v>0.5105069999999999</v>
       </c>
       <c r="C484">
         <v>18.16791666666667</v>
@@ -20265,7 +20265,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.405576</v>
+        <v>0.50697</v>
       </c>
       <c r="C485">
         <v>17.88666666666667</v>
@@ -20274,10 +20274,10 @@
         <v>2.25</v>
       </c>
       <c r="E485">
-        <v>13.6</v>
+        <v>3.242105263157894</v>
       </c>
       <c r="F485">
-        <v>16</v>
+        <v>3.814241486068111</v>
       </c>
       <c r="G485">
         <v>0</v>
@@ -20292,7 +20292,7 @@
         <v>0</v>
       </c>
       <c r="K485">
-        <v>36.13666666666667</v>
+        <v>23.95090815273478</v>
       </c>
       <c r="L485">
         <v>0</v>
@@ -20306,7 +20306,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>0.4041612</v>
+        <v>0.5052015</v>
       </c>
       <c r="C486">
         <v>22.3</v>
@@ -20315,7 +20315,7 @@
         <v>1.75</v>
       </c>
       <c r="E486">
-        <v>27.2</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="F486">
         <v>16</v>
@@ -20347,7 +20347,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>0.4080519</v>
+        <v>0.510064875</v>
       </c>
       <c r="C487">
         <v>23.20541666666667</v>
@@ -20356,7 +20356,7 @@
         <v>1.1</v>
       </c>
       <c r="E487">
-        <v>27.2</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="F487">
         <v>0</v>
@@ -20388,7 +20388,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.404397</v>
+        <v>0.50549625</v>
       </c>
       <c r="C488">
         <v>24.94833333333333</v>
@@ -20397,7 +20397,7 @@
         <v>0.75</v>
       </c>
       <c r="E488">
-        <v>27.2</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="F488">
         <v>0</v>
@@ -20429,7 +20429,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>0.4124142</v>
+        <v>0.5155177499999999</v>
       </c>
       <c r="C489">
         <v>28.22166666666667</v>
@@ -20438,7 +20438,7 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="E489">
-        <v>27.2</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="F489">
         <v>0</v>
@@ -20470,7 +20470,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>0.4106457</v>
+        <v>0.513307125</v>
       </c>
       <c r="C490">
         <v>32.29541666666667</v>
@@ -20479,7 +20479,7 @@
         <v>0.8250000000000001</v>
       </c>
       <c r="E490">
-        <v>27.2</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="F490">
         <v>0</v>
@@ -20511,7 +20511,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>0.4194881999999999</v>
+        <v>0.5243602499999999</v>
       </c>
       <c r="C491">
         <v>32.44583333333333</v>
@@ -20520,7 +20520,7 @@
         <v>1.25</v>
       </c>
       <c r="E491">
-        <v>27.2</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="F491">
         <v>0</v>
@@ -20552,7 +20552,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.4348152</v>
+        <v>0.543519</v>
       </c>
       <c r="C492">
         <v>34.39541666666667</v>
@@ -20561,7 +20561,7 @@
         <v>1.35</v>
       </c>
       <c r="E492">
-        <v>27.2</v>
+        <v>16.84210526315789</v>
       </c>
       <c r="F492">
         <v>0</v>
@@ -20593,7 +20593,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.4456619999999999</v>
+        <v>0.5570774999999999</v>
       </c>
       <c r="C493">
         <v>46.90375</v>
@@ -20608,7 +20608,7 @@
         <v>0</v>
       </c>
       <c r="G493">
-        <v>9.840000000000002</v>
+        <v>0</v>
       </c>
       <c r="H493">
         <v>0</v>
@@ -20620,7 +20620,7 @@
         <v>0</v>
       </c>
       <c r="K493">
-        <v>39.08875</v>
+        <v>48.92875</v>
       </c>
       <c r="L493">
         <v>0</v>
@@ -20634,7 +20634,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0.4398849</v>
+        <v>0.549856125</v>
       </c>
       <c r="C494">
         <v>52.50666666666668</v>
@@ -20675,7 +20675,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.4336362</v>
+        <v>0.5420452499999999</v>
       </c>
       <c r="C495">
         <v>49.21041666666667</v>
@@ -20716,7 +20716,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0.4367016</v>
+        <v>0.5458769999999999</v>
       </c>
       <c r="C496">
         <v>46.04791666666667</v>
@@ -20757,7 +20757,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.4424787</v>
+        <v>0.553098375</v>
       </c>
       <c r="C497">
         <v>44.05083333333332</v>
@@ -20798,7 +20798,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.4410639</v>
+        <v>0.551329875</v>
       </c>
       <c r="C498">
         <v>48.81791666666668</v>
@@ -20839,7 +20839,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>0.4234968</v>
+        <v>0.529371</v>
       </c>
       <c r="C499">
         <v>48.65041666666666</v>
@@ -20880,7 +20880,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>0.4188987</v>
+        <v>0.5236233749999999</v>
       </c>
       <c r="C500">
         <v>43.77416666666667</v>
@@ -20921,7 +20921,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>0.4121783999999999</v>
+        <v>0.515223</v>
       </c>
       <c r="C501">
         <v>49.09333333333334</v>
@@ -20962,7 +20962,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0.4087593</v>
+        <v>0.510949125</v>
       </c>
       <c r="C502">
         <v>44.87583333333333</v>
@@ -21003,7 +21003,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>0.4912893</v>
+        <v>0.6141116249999999</v>
       </c>
       <c r="C503">
         <v>39.59208333333333</v>
@@ -21044,7 +21044,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>0.4832721</v>
+        <v>0.6040901249999999</v>
       </c>
       <c r="C504">
         <v>37.95833333333334</v>
@@ -21085,7 +21085,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0.3422636999999999</v>
+        <v>0.4278296249999999</v>
       </c>
       <c r="C505">
         <v>26.82416666666667</v>
@@ -21126,7 +21126,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.321867</v>
+        <v>0.4023337499999999</v>
       </c>
       <c r="C506">
         <v>19.21291666666667</v>
@@ -21167,7 +21167,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.2622096</v>
+        <v>0.327762</v>
       </c>
       <c r="C507">
         <v>19.36666666666667</v>
@@ -21208,7 +21208,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>0.2195298</v>
+        <v>0.27441225</v>
       </c>
       <c r="C508">
         <v>18.31708333333333</v>
@@ -21249,7 +21249,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>0.1134198</v>
+        <v>0.14177475</v>
       </c>
       <c r="C509">
         <v>23.32541666666668</v>
@@ -21290,7 +21290,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>0.09314099999999999</v>
+        <v>0.11642625</v>
       </c>
       <c r="C510">
         <v>25.07166666666667</v>
@@ -21331,7 +21331,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>0.2358</v>
+        <v>0.29475</v>
       </c>
       <c r="C511">
         <v>31.92416666666666</v>
@@ -21372,7 +21372,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>0.3071295</v>
+        <v>0.383911875</v>
       </c>
       <c r="C512">
         <v>34.84208333333333</v>
@@ -21413,7 +21413,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>0.391428</v>
+        <v>0.489285</v>
       </c>
       <c r="C513">
         <v>37.82666666666667</v>
@@ -21454,7 +21454,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>0.3900131999999999</v>
+        <v>0.4875164999999999</v>
       </c>
       <c r="C514">
         <v>41.85666666666667</v>
@@ -21495,7 +21495,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>0.3875373</v>
+        <v>0.484421625</v>
       </c>
       <c r="C515">
         <v>41.47083333333333</v>
@@ -21536,7 +21536,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>0.3736251</v>
+        <v>0.467031375</v>
       </c>
       <c r="C516">
         <v>43.06875000000001</v>
@@ -21577,7 +21577,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>0.3639573</v>
+        <v>0.454946625</v>
       </c>
       <c r="C517">
         <v>37.37208333333334</v>
@@ -21618,7 +21618,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>0.3683196</v>
+        <v>0.4603995</v>
       </c>
       <c r="C518">
         <v>35.17333333333334</v>
@@ -21659,7 +21659,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>0.4995422999999999</v>
+        <v>0.624427875</v>
       </c>
       <c r="C519">
         <v>38.21958333333333</v>
@@ -21700,7 +21700,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>0.5094459</v>
+        <v>0.6368073750000001</v>
       </c>
       <c r="C520">
         <v>35.50208333333334</v>
@@ -21741,7 +21741,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>0.5323184999999999</v>
+        <v>0.6653981249999998</v>
       </c>
       <c r="C521">
         <v>35.77916666666666</v>
@@ -21782,7 +21782,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>0.5451695999999999</v>
+        <v>0.6814619999999999</v>
       </c>
       <c r="C522">
         <v>36.81083333333333</v>
@@ -21823,7 +21823,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>0.5056731</v>
+        <v>0.632091375</v>
       </c>
       <c r="C523">
         <v>55.29375</v>
@@ -21864,7 +21864,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>0.4955337</v>
+        <v>0.619417125</v>
       </c>
       <c r="C524">
         <v>53.49375000000001</v>
@@ -21905,7 +21905,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>0.390249</v>
+        <v>0.4878112499999999</v>
       </c>
       <c r="C525">
         <v>48.00916666666667</v>
@@ -21946,7 +21946,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>0.3703239</v>
+        <v>0.462904875</v>
       </c>
       <c r="C526">
         <v>50.56</v>
@@ -21987,7 +21987,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>0.3400236</v>
+        <v>0.4250294999999999</v>
       </c>
       <c r="C527">
         <v>39.93708333333333</v>
@@ -22028,7 +22028,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>0.3073653</v>
+        <v>0.384206625</v>
       </c>
       <c r="C528">
         <v>34.86416666666667</v>
@@ -22069,7 +22069,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>0.2715237</v>
+        <v>0.339404625</v>
       </c>
       <c r="C529">
         <v>28.73083333333334</v>
@@ -22110,7 +22110,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>0.2175255</v>
+        <v>0.2719068749999999</v>
       </c>
       <c r="C530">
         <v>28.25791666666666</v>
@@ -22151,7 +22151,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>0.2277828</v>
+        <v>0.2847285</v>
       </c>
       <c r="C531">
         <v>24.97875</v>
@@ -22192,7 +22192,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>0.2319093</v>
+        <v>0.289886625</v>
       </c>
       <c r="C532">
         <v>24.21333333333333</v>
@@ -22233,7 +22233,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>0.2343852</v>
+        <v>0.2929815</v>
       </c>
       <c r="C533">
         <v>35.925</v>
@@ -22274,7 +22274,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>0.2320272</v>
+        <v>0.290034</v>
       </c>
       <c r="C534">
         <v>33.85416666666667</v>
@@ -22315,7 +22315,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>0.2550177</v>
+        <v>0.318772125</v>
       </c>
       <c r="C535">
         <v>37.56416666666667</v>
@@ -22356,7 +22356,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>0.3033567</v>
+        <v>0.379195875</v>
       </c>
       <c r="C536">
         <v>52.35041666666666</v>
@@ -22397,7 +22397,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>0.3465080999999999</v>
+        <v>0.4331351249999999</v>
       </c>
       <c r="C537">
         <v>54.90291666666666</v>
@@ -22438,7 +22438,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>0.3963797999999999</v>
+        <v>0.49547475</v>
       </c>
       <c r="C538">
         <v>54.50791666666667</v>
@@ -22479,7 +22479,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>0.3633678</v>
+        <v>0.45420975</v>
       </c>
       <c r="C539">
         <v>41.85708333333334</v>
@@ -22520,7 +22520,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>0.3527568</v>
+        <v>0.4409459999999999</v>
       </c>
       <c r="C540">
         <v>44.54833333333332</v>
@@ -22561,7 +22561,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>0.3262293</v>
+        <v>0.407786625</v>
       </c>
       <c r="C541">
         <v>40.42416666666666</v>
@@ -22602,7 +22602,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>0.3133781999999999</v>
+        <v>0.3917227499999999</v>
       </c>
       <c r="C542">
         <v>35.18875</v>
@@ -22643,7 +22643,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>0.3155004</v>
+        <v>0.3943755</v>
       </c>
       <c r="C543">
         <v>39.03916666666668</v>
@@ -22684,7 +22684,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>0.360774</v>
+        <v>0.4509675</v>
       </c>
       <c r="C544">
         <v>42.15791666666668</v>
@@ -22725,7 +22725,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>0.3756294</v>
+        <v>0.46953675</v>
       </c>
       <c r="C545">
         <v>30.96083333333333</v>
@@ -22766,7 +22766,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>0.5179346999999999</v>
+        <v>0.6474183749999998</v>
       </c>
       <c r="C546">
         <v>40.84291666666668</v>
@@ -22807,7 +22807,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>0.5913863999999999</v>
+        <v>0.7392329999999998</v>
       </c>
       <c r="C547">
         <v>44.04166666666667</v>
@@ -22848,7 +22848,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>0.6089534999999999</v>
+        <v>0.761191875</v>
       </c>
       <c r="C548">
         <v>43.07250000000001</v>
@@ -22889,7 +22889,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>0.6431444999999999</v>
+        <v>0.8039306249999999</v>
       </c>
       <c r="C549">
         <v>41.26791666666666</v>
@@ -22930,7 +22930,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>0.6438519</v>
+        <v>0.804814875</v>
       </c>
       <c r="C550">
         <v>50.69958333333332</v>
@@ -22971,7 +22971,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>0.5803037999999999</v>
+        <v>0.7253797499999999</v>
       </c>
       <c r="C551">
         <v>44.44958333333334</v>
@@ -23012,7 +23012,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>0.5030793</v>
+        <v>0.628849125</v>
       </c>
       <c r="C552">
         <v>42.6975</v>
@@ -23053,7 +23053,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>0.3921354</v>
+        <v>0.4901692499999999</v>
       </c>
       <c r="C553">
         <v>28.42708333333333</v>
@@ -23094,7 +23094,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>0.3373119</v>
+        <v>0.421639875</v>
       </c>
       <c r="C554">
         <v>28.96125</v>
@@ -23135,7 +23135,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>0.2967543</v>
+        <v>0.370942875</v>
       </c>
       <c r="C555">
         <v>26.92166666666666</v>
@@ -23176,7 +23176,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>0.2433456</v>
+        <v>0.304182</v>
       </c>
       <c r="C556">
         <v>28.35958333333333</v>
@@ -23217,7 +23217,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>0.2218878</v>
+        <v>0.27735975</v>
       </c>
       <c r="C557">
         <v>36.83916666666666</v>
@@ -23258,7 +23258,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>0.2194119</v>
+        <v>0.274264875</v>
       </c>
       <c r="C558">
         <v>32.76041666666666</v>
@@ -23299,7 +23299,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>0.2304945</v>
+        <v>0.288118125</v>
       </c>
       <c r="C559">
         <v>39.97458333333334</v>
@@ -23340,7 +23340,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>0.300645</v>
+        <v>0.37580625</v>
       </c>
       <c r="C560">
         <v>43.1075</v>
@@ -23381,7 +23381,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>0.4566266999999999</v>
+        <v>0.570783375</v>
       </c>
       <c r="C561">
         <v>42.31499999999999</v>
@@ -23422,7 +23422,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>0.5827796999999999</v>
+        <v>0.7284746249999998</v>
       </c>
       <c r="C562">
         <v>43.64958333333333</v>
@@ -23463,7 +23463,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>0.5840765999999999</v>
+        <v>0.7300957499999999</v>
       </c>
       <c r="C563">
         <v>35.83541666666667</v>
@@ -23504,7 +23504,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>0.590679</v>
+        <v>0.7383487499999999</v>
       </c>
       <c r="C564">
         <v>33.43333333333334</v>
@@ -23513,13 +23513,13 @@
         <v>2.025</v>
       </c>
       <c r="E564">
-        <v>67.36842105263158</v>
+        <v>80</v>
       </c>
       <c r="F564">
         <v>0</v>
       </c>
       <c r="G564">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H564">
         <v>103.075</v>
@@ -23531,7 +23531,7 @@
         <v>2.025</v>
       </c>
       <c r="K564">
-        <v>21.43333333333333</v>
+        <v>33.43333333333333</v>
       </c>
       <c r="L564">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>0.5984603999999999</v>
+        <v>0.7480754999999999</v>
       </c>
       <c r="C565">
         <v>38.79749999999999</v>
@@ -23554,7 +23554,7 @@
         <v>2.375</v>
       </c>
       <c r="E565">
-        <v>50.52631578947368</v>
+        <v>63.15789473684211</v>
       </c>
       <c r="F565">
         <v>0</v>
@@ -23586,7 +23586,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>0.5514183</v>
+        <v>0.689272875</v>
       </c>
       <c r="C566">
         <v>35.26083333333332</v>
@@ -23595,7 +23595,7 @@
         <v>2.95</v>
       </c>
       <c r="E566">
-        <v>50.52631578947368</v>
+        <v>63.15789473684211</v>
       </c>
       <c r="F566">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>0.5705181</v>
+        <v>0.7131476250000001</v>
       </c>
       <c r="C567">
         <v>33.31958333333333</v>
@@ -23636,7 +23636,7 @@
         <v>3.025</v>
       </c>
       <c r="E567">
-        <v>50.52631578947368</v>
+        <v>63.15789473684211</v>
       </c>
       <c r="F567">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>0.5818365</v>
+        <v>0.727295625</v>
       </c>
       <c r="C568">
         <v>33.79875000000001</v>
@@ -23677,7 +23677,7 @@
         <v>3.924999999999999</v>
       </c>
       <c r="E568">
-        <v>50.52631578947368</v>
+        <v>63.15789473684211</v>
       </c>
       <c r="F568">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>0.5889105</v>
+        <v>0.736138125</v>
       </c>
       <c r="C569">
         <v>33.86375</v>
@@ -23718,7 +23718,7 @@
         <v>5.175000000000001</v>
       </c>
       <c r="E569">
-        <v>50.52631578947368</v>
+        <v>63.15789473684211</v>
       </c>
       <c r="F569">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>0.5989319999999999</v>
+        <v>0.7486649999999999</v>
       </c>
       <c r="C570">
         <v>41.89916666666667</v>
@@ -23759,7 +23759,7 @@
         <v>8.774999999999999</v>
       </c>
       <c r="E570">
-        <v>33.68421052631579</v>
+        <v>46.31578947368422</v>
       </c>
       <c r="F570">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>0.6391359</v>
+        <v>0.7989198749999999</v>
       </c>
       <c r="C571">
         <v>50.39208333333334</v>
@@ -23800,7 +23800,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="E571">
-        <v>16.84210526315789</v>
+        <v>29.47368421052633</v>
       </c>
       <c r="F571">
         <v>0</v>
@@ -23832,7 +23832,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>0.5988140999999999</v>
+        <v>0.7485176249999999</v>
       </c>
       <c r="C572">
         <v>46.99375</v>
@@ -23841,7 +23841,7 @@
         <v>7.9</v>
       </c>
       <c r="E572">
-        <v>0</v>
+        <v>12.63157894736843</v>
       </c>
       <c r="F572">
         <v>0</v>
@@ -23873,7 +23873,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>0.5833691999999998</v>
+        <v>0.7292114999999998</v>
       </c>
       <c r="C573">
         <v>46.38208333333333</v>
@@ -23882,7 +23882,7 @@
         <v>8.024999999999999</v>
       </c>
       <c r="E573">
-        <v>0</v>
+        <v>12.63157894736843</v>
       </c>
       <c r="F573">
         <v>0</v>
@@ -23914,7 +23914,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>0.4973022</v>
+        <v>0.6216277499999999</v>
       </c>
       <c r="C574">
         <v>46.92583333333332</v>
@@ -23923,7 +23923,7 @@
         <v>9.175000000000001</v>
       </c>
       <c r="E574">
-        <v>0</v>
+        <v>12.63157894736843</v>
       </c>
       <c r="F574">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>0.4720715999999999</v>
+        <v>0.5900894999999999</v>
       </c>
       <c r="C575">
         <v>41.78916666666668</v>
@@ -23964,7 +23964,7 @@
         <v>8.774999999999999</v>
       </c>
       <c r="E575">
-        <v>0</v>
+        <v>12.63157894736843</v>
       </c>
       <c r="F575">
         <v>0</v>
@@ -23996,7 +23996,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>0.4952978999999999</v>
+        <v>0.6191223749999999</v>
       </c>
       <c r="C576">
         <v>33.00250000000001</v>
@@ -24005,7 +24005,7 @@
         <v>8.149999999999999</v>
       </c>
       <c r="E576">
-        <v>13.6</v>
+        <v>26.23157894736843</v>
       </c>
       <c r="F576">
         <v>16</v>
@@ -24037,7 +24037,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>0.4542687</v>
+        <v>0.567835875</v>
       </c>
       <c r="C577">
         <v>27.83083333333333</v>
@@ -24046,7 +24046,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="E577">
-        <v>27.2</v>
+        <v>39.83157894736843</v>
       </c>
       <c r="F577">
         <v>16</v>
@@ -24078,7 +24078,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>0.5168736</v>
+        <v>0.6460920000000001</v>
       </c>
       <c r="C578">
         <v>23.9525</v>
@@ -24087,7 +24087,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="E578">
-        <v>40.8</v>
+        <v>53.43157894736844</v>
       </c>
       <c r="F578">
         <v>16</v>
@@ -24119,7 +24119,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>0.5184063</v>
+        <v>0.648007875</v>
       </c>
       <c r="C579">
         <v>25.88333333333333</v>
@@ -24128,10 +24128,10 @@
         <v>4.074999999999999</v>
       </c>
       <c r="E579">
-        <v>52.8</v>
+        <v>53.43157894736844</v>
       </c>
       <c r="F579">
-        <v>14.11764705882354</v>
+        <v>0</v>
       </c>
       <c r="G579">
         <v>0</v>
@@ -24146,7 +24146,7 @@
         <v>0</v>
       </c>
       <c r="K579">
-        <v>44.07598039215686</v>
+        <v>29.95833333333333</v>
       </c>
       <c r="L579">
         <v>0</v>
@@ -24160,7 +24160,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>0.5041403999999999</v>
+        <v>0.6301754999999999</v>
       </c>
       <c r="C580">
         <v>32.8875</v>
@@ -24169,7 +24169,7 @@
         <v>2.774999999999999</v>
       </c>
       <c r="E580">
-        <v>66.40000000000001</v>
+        <v>67.03157894736843</v>
       </c>
       <c r="F580">
         <v>16</v>
@@ -24201,7 +24201,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>0.5169914999999999</v>
+        <v>0.6462393749999999</v>
       </c>
       <c r="C581">
         <v>35.6125</v>
@@ -24213,7 +24213,7 @@
         <v>80</v>
       </c>
       <c r="F581">
-        <v>16</v>
+        <v>15.25696594427244</v>
       </c>
       <c r="G581">
         <v>0</v>
@@ -24228,7 +24228,7 @@
         <v>0</v>
       </c>
       <c r="K581">
-        <v>53.46250000000001</v>
+        <v>52.71946594427244</v>
       </c>
       <c r="L581">
         <v>0</v>
@@ -24242,7 +24242,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>0.5318469</v>
+        <v>0.664808625</v>
       </c>
       <c r="C582">
         <v>34.20458333333333</v>
@@ -24283,7 +24283,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>0.6014078999999999</v>
+        <v>0.7517598749999999</v>
       </c>
       <c r="C583">
         <v>39.06916666666666</v>
@@ -24324,7 +24324,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>0.7002081</v>
+        <v>0.8752601250000001</v>
       </c>
       <c r="C584">
         <v>47.98958333333332</v>
@@ -24365,7 +24365,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>0.7787295</v>
+        <v>0.9734118749999999</v>
       </c>
       <c r="C585">
         <v>42.19416666666668</v>
@@ -24406,7 +24406,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>1.0495458</v>
+        <v>1.31193225</v>
       </c>
       <c r="C586">
         <v>38.81791666666667</v>
@@ -24447,7 +24447,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>1.0050975</v>
+        <v>1.256371875</v>
       </c>
       <c r="C587">
         <v>41.67083333333333</v>
@@ -24488,7 +24488,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>0.9591164999999998</v>
+        <v>1.198895625</v>
       </c>
       <c r="C588">
         <v>42.46708333333333</v>
@@ -24529,7 +24529,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>0.8986337999999999</v>
+        <v>1.12329225</v>
       </c>
       <c r="C589">
         <v>42.8375</v>
@@ -24570,7 +24570,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>0.8563076999999999</v>
+        <v>1.070384625</v>
       </c>
       <c r="C590">
         <v>36.42375</v>
@@ -24611,7 +24611,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>0.8894375999999998</v>
+        <v>1.111797</v>
       </c>
       <c r="C591">
         <v>39.88416666666666</v>
@@ -24652,7 +24652,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>0.9380124</v>
+        <v>1.1725155</v>
       </c>
       <c r="C592">
         <v>38.45708333333333</v>
@@ -24693,7 +24693,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>0.8129204999999999</v>
+        <v>1.016150625</v>
       </c>
       <c r="C593">
         <v>35.67458333333333</v>
@@ -24734,7 +24734,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>0.8429849999999999</v>
+        <v>1.05373125</v>
       </c>
       <c r="C594">
         <v>40.61541666666667</v>
@@ -24775,7 +24775,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>1.1700396</v>
+        <v>1.4625495</v>
       </c>
       <c r="C595">
         <v>51.14333333333335</v>
@@ -24816,7 +24816,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>1.3200084</v>
+        <v>1.6500105</v>
       </c>
       <c r="C596">
         <v>45.41416666666667</v>
@@ -24857,7 +24857,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>0.8591373</v>
+        <v>1.073921625</v>
       </c>
       <c r="C597">
         <v>48.99750000000001</v>
@@ -24898,7 +24898,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>0.7702407</v>
+        <v>0.962800875</v>
       </c>
       <c r="C598">
         <v>42.25458333333334</v>
@@ -24939,7 +24939,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>0.7320411</v>
+        <v>0.915051375</v>
       </c>
       <c r="C599">
         <v>38.9375</v>
@@ -24980,7 +24980,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>0.6103683</v>
+        <v>0.762960375</v>
       </c>
       <c r="C600">
         <v>34.9875</v>
@@ -25021,7 +25021,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>0.5511825</v>
+        <v>0.688978125</v>
       </c>
       <c r="C601">
         <v>33.50583333333333</v>
@@ -25062,7 +25062,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>0.4960053</v>
+        <v>0.620006625</v>
       </c>
       <c r="C602">
         <v>24.30416666666667</v>
@@ -25103,7 +25103,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>0.4832721</v>
+        <v>0.6040901249999999</v>
       </c>
       <c r="C603">
         <v>21.63791666666667</v>
@@ -25144,7 +25144,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>0.4691240999999999</v>
+        <v>0.586405125</v>
       </c>
       <c r="C604">
         <v>25.51416666666667</v>
@@ -25185,7 +25185,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>0.4507317</v>
+        <v>0.5634146249999999</v>
       </c>
       <c r="C605">
         <v>27.10624999999999</v>
@@ -25226,7 +25226,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>0.4262084999999999</v>
+        <v>0.5327606249999999</v>
       </c>
       <c r="C606">
         <v>24.67541666666667</v>
@@ -25267,7 +25267,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>0.38907</v>
+        <v>0.4863375</v>
       </c>
       <c r="C607">
         <v>30.61125</v>
@@ -25276,10 +25276,10 @@
         <v>0.4999999999999999</v>
       </c>
       <c r="E607">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="F607">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G607">
         <v>0</v>
@@ -25294,7 +25294,7 @@
         <v>0</v>
       </c>
       <c r="K607">
-        <v>47.11125</v>
+        <v>31.11125</v>
       </c>
       <c r="L607">
         <v>0</v>
@@ -25308,7 +25308,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>0.4049865</v>
+        <v>0.506233125</v>
       </c>
       <c r="C608">
         <v>31.68083333333334</v>
@@ -25317,7 +25317,7 @@
         <v>0.25</v>
       </c>
       <c r="E608">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="F608">
         <v>0</v>
@@ -25349,7 +25349,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>0.4151259</v>
+        <v>0.5189073749999999</v>
       </c>
       <c r="C609">
         <v>34.37458333333333</v>
@@ -25358,7 +25358,7 @@
         <v>0.325</v>
       </c>
       <c r="E609">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="F609">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>0.4102919999999999</v>
+        <v>0.5128649999999999</v>
       </c>
       <c r="C610">
         <v>34.06375</v>
@@ -25399,7 +25399,7 @@
         <v>1.25</v>
       </c>
       <c r="E610">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="F610">
         <v>0</v>
@@ -25431,7 +25431,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>0.4250294999999999</v>
+        <v>0.5312868749999999</v>
       </c>
       <c r="C611">
         <v>31.59583333333333</v>
@@ -25440,7 +25440,7 @@
         <v>1.675</v>
       </c>
       <c r="E611">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="F611">
         <v>0</v>
@@ -25472,7 +25472,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>0.4283306999999999</v>
+        <v>0.5354133749999999</v>
       </c>
       <c r="C612">
         <v>35.43708333333333</v>
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="G612">
-        <v>12.92</v>
+        <v>0</v>
       </c>
       <c r="H612">
         <v>0</v>
@@ -25499,7 +25499,7 @@
         <v>0</v>
       </c>
       <c r="K612">
-        <v>24.54208333333333</v>
+        <v>37.46208333333333</v>
       </c>
       <c r="L612">
         <v>0</v>
@@ -25513,7 +25513,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>0.415008</v>
+        <v>0.51876</v>
       </c>
       <c r="C613">
         <v>31.12666666666667</v>
@@ -25554,7 +25554,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>0.4227893999999999</v>
+        <v>0.5284867499999999</v>
       </c>
       <c r="C614">
         <v>34.63374999999999</v>
@@ -25595,7 +25595,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>0.4120605</v>
+        <v>0.515075625</v>
       </c>
       <c r="C615">
         <v>33.89666666666667</v>
@@ -25636,7 +25636,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>0.3897774</v>
+        <v>0.48722175</v>
       </c>
       <c r="C616">
         <v>31.35</v>
@@ -25677,7 +25677,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>0.3798738</v>
+        <v>0.47484225</v>
       </c>
       <c r="C617">
         <v>33.06458333333333</v>
@@ -25718,7 +25718,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>0.3897774</v>
+        <v>0.48722175</v>
       </c>
       <c r="C618">
         <v>40.70083333333334</v>
@@ -25759,7 +25759,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>0.3897774</v>
+        <v>0.48722175</v>
       </c>
       <c r="C619">
         <v>59.53916666666666</v>
@@ -25800,7 +25800,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>0.4240862999999999</v>
+        <v>0.5301078749999999</v>
       </c>
       <c r="C620">
         <v>60.57833333333335</v>
@@ -25841,7 +25841,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>0.3950829</v>
+        <v>0.493853625</v>
       </c>
       <c r="C621">
         <v>57.96666666666667</v>
@@ -25882,7 +25882,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>0.3251682</v>
+        <v>0.40646025</v>
       </c>
       <c r="C622">
         <v>46.97041666666667</v>
@@ -25923,7 +25923,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>0.3037104</v>
+        <v>0.379638</v>
       </c>
       <c r="C623">
         <v>33.64791666666667</v>
@@ -25964,7 +25964,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>0.2875581</v>
+        <v>0.359447625</v>
       </c>
       <c r="C624">
         <v>29.64125</v>
@@ -26005,7 +26005,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>0.2591442</v>
+        <v>0.32393025</v>
       </c>
       <c r="C625">
         <v>22.07416666666666</v>
@@ -26046,7 +26046,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>0.2277828</v>
+        <v>0.2847285</v>
       </c>
       <c r="C626">
         <v>20.16625</v>
@@ -26087,7 +26087,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>0.2152854</v>
+        <v>0.26910675</v>
       </c>
       <c r="C627">
         <v>18.6625</v>
@@ -26128,7 +26128,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>0.2078577</v>
+        <v>0.259822125</v>
       </c>
       <c r="C628">
         <v>19.1375</v>
@@ -26169,7 +26169,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>0.2124558</v>
+        <v>0.2655697499999999</v>
       </c>
       <c r="C629">
         <v>22.07208333333333</v>
@@ -26210,7 +26210,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>0.2179971</v>
+        <v>0.272496375</v>
       </c>
       <c r="C630">
         <v>18.90833333333333</v>
@@ -26251,7 +26251,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>0.2221236</v>
+        <v>0.2776545</v>
       </c>
       <c r="C631">
         <v>21.58166666666667</v>
@@ -26292,7 +26292,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>0.2288439</v>
+        <v>0.286054875</v>
       </c>
       <c r="C632">
         <v>27.74166666666666</v>
@@ -26333,7 +26333,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>0.2441709</v>
+        <v>0.305213625</v>
       </c>
       <c r="C633">
         <v>36.30833333333333</v>
@@ -26374,7 +26374,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>0.24759</v>
+        <v>0.3094875</v>
       </c>
       <c r="C634">
         <v>37.13249999999999</v>
@@ -26415,7 +26415,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>0.2479437</v>
+        <v>0.309929625</v>
       </c>
       <c r="C635">
         <v>41.59666666666666</v>
@@ -26456,7 +26456,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>0.2491227</v>
+        <v>0.311403375</v>
       </c>
       <c r="C636">
         <v>42.87</v>
@@ -26497,7 +26497,7 @@
         <v>635</v>
       </c>
       <c r="B637">
-        <v>0.2478258</v>
+        <v>0.30978225</v>
       </c>
       <c r="C637">
         <v>33.83416666666667</v>
@@ -26538,7 +26538,7 @@
         <v>636</v>
       </c>
       <c r="B638">
-        <v>0.2420487</v>
+        <v>0.302560875</v>
       </c>
       <c r="C638">
         <v>40.87375000000001</v>
@@ -26579,7 +26579,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>0.2367432</v>
+        <v>0.295929</v>
       </c>
       <c r="C639">
         <v>42.01666666666667</v>
@@ -26620,7 +26620,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>0.2361537</v>
+        <v>0.295192125</v>
       </c>
       <c r="C640">
         <v>48.15375</v>
@@ -26661,7 +26661,7 @@
         <v>639</v>
       </c>
       <c r="B641">
-        <v>0.2378043</v>
+        <v>0.297255375</v>
       </c>
       <c r="C641">
         <v>47.56375</v>
@@ -26702,7 +26702,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>0.2396907</v>
+        <v>0.299613375</v>
       </c>
       <c r="C642">
         <v>50.63708333333332</v>
@@ -26743,7 +26743,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>0.2436993</v>
+        <v>0.304624125</v>
       </c>
       <c r="C643">
         <v>44.37083333333334</v>
@@ -26784,7 +26784,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>0.2406339</v>
+        <v>0.300792375</v>
       </c>
       <c r="C644">
         <v>42.42708333333334</v>
@@ -26825,7 +26825,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>0.2195298</v>
+        <v>0.27441225</v>
       </c>
       <c r="C645">
         <v>42.42125000000001</v>
@@ -26866,7 +26866,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>0.1783827</v>
+        <v>0.222978375</v>
       </c>
       <c r="C646">
         <v>39.72083333333333</v>
@@ -26907,7 +26907,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>0.1195506</v>
+        <v>0.14943825</v>
       </c>
       <c r="C647">
         <v>51.00125000000001</v>
@@ -26948,7 +26948,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>0.0538803</v>
+        <v>0.067350375</v>
       </c>
       <c r="C648">
         <v>43.33541666666665</v>
@@ -26989,7 +26989,7 @@
         <v>647</v>
       </c>
       <c r="B649">
-        <v>0.0432693</v>
+        <v>0.054086625</v>
       </c>
       <c r="C649">
         <v>29.3075</v>
@@ -27030,7 +27030,7 @@
         <v>648</v>
       </c>
       <c r="B650">
-        <v>0.03537</v>
+        <v>0.0442125</v>
       </c>
       <c r="C650">
         <v>22.65000000000001</v>
@@ -27071,7 +27071,7 @@
         <v>649</v>
       </c>
       <c r="B651">
-        <v>0.0378459</v>
+        <v>0.047307375</v>
       </c>
       <c r="C651">
         <v>25.20583333333333</v>
@@ -27089,16 +27089,16 @@
         <v>0</v>
       </c>
       <c r="H651">
-        <v>35.90291666666937</v>
+        <v>35.675</v>
       </c>
       <c r="I651">
-        <v>11.70291666666937</v>
+        <v>11.475</v>
       </c>
       <c r="J651">
         <v>0</v>
       </c>
       <c r="K651">
-        <v>57.08375000000271</v>
+        <v>56.85583333333333</v>
       </c>
       <c r="L651">
         <v>0</v>
@@ -27112,7 +27112,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>0.04209029999999999</v>
+        <v>0.05261287499999999</v>
       </c>
       <c r="C652">
         <v>28.99791666666667</v>
@@ -27130,7 +27130,7 @@
         <v>0</v>
       </c>
       <c r="H652">
-        <v>35.90291666666937</v>
+        <v>35.675</v>
       </c>
       <c r="I652">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>0.1353492</v>
+        <v>0.1691865</v>
       </c>
       <c r="C653">
         <v>27.13708333333333</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="H653">
-        <v>35.90291666666937</v>
+        <v>35.675</v>
       </c>
       <c r="I653">
         <v>0</v>
@@ -27194,7 +27194,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>0.1774395</v>
+        <v>0.221799375</v>
       </c>
       <c r="C654">
         <v>23.66625</v>
@@ -27212,7 +27212,7 @@
         <v>0</v>
       </c>
       <c r="H654">
-        <v>35.90291666666937</v>
+        <v>35.675</v>
       </c>
       <c r="I654">
         <v>0</v>
@@ -27235,7 +27235,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>0.1926486</v>
+        <v>0.24081075</v>
       </c>
       <c r="C655">
         <v>23.87333333333333</v>
@@ -27253,7 +27253,7 @@
         <v>0</v>
       </c>
       <c r="H655">
-        <v>35.90291666666937</v>
+        <v>35.675</v>
       </c>
       <c r="I655">
         <v>0</v>
@@ -27276,7 +27276,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>0.2148138</v>
+        <v>0.26851725</v>
       </c>
       <c r="C656">
         <v>29.97458333333333</v>
@@ -27294,7 +27294,7 @@
         <v>0</v>
       </c>
       <c r="H656">
-        <v>35.15291666666937</v>
+        <v>34.925</v>
       </c>
       <c r="I656">
         <v>0</v>
@@ -27317,7 +27317,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>0.2211804</v>
+        <v>0.2764755</v>
       </c>
       <c r="C657">
         <v>37.64666666666667</v>
@@ -27335,7 +27335,7 @@
         <v>16</v>
       </c>
       <c r="H657">
-        <v>34.65291666666937</v>
+        <v>34.425</v>
       </c>
       <c r="I657">
         <v>0</v>
@@ -27358,7 +27358,7 @@
         <v>656</v>
       </c>
       <c r="B658">
-        <v>0.2187045</v>
+        <v>0.273380625</v>
       </c>
       <c r="C658">
         <v>39.54666666666667</v>
@@ -27376,7 +27376,7 @@
         <v>12</v>
       </c>
       <c r="H658">
-        <v>33.82791666666937</v>
+        <v>33.6</v>
       </c>
       <c r="I658">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>0.2200014</v>
+        <v>0.27500175</v>
       </c>
       <c r="C659">
         <v>53.30208333333334</v>
@@ -27417,7 +27417,7 @@
         <v>16</v>
       </c>
       <c r="H659">
-        <v>32.57791666666937</v>
+        <v>32.35</v>
       </c>
       <c r="I659">
         <v>0</v>
@@ -27440,7 +27440,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>0.2197656</v>
+        <v>0.274707</v>
       </c>
       <c r="C660">
         <v>50.09125000000001</v>
@@ -27458,7 +27458,7 @@
         <v>16</v>
       </c>
       <c r="H660">
-        <v>31.22791666666937</v>
+        <v>31</v>
       </c>
       <c r="I660">
         <v>0</v>
@@ -27481,7 +27481,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>0.2208267</v>
+        <v>0.276033375</v>
       </c>
       <c r="C661">
         <v>45.79416666666667</v>
@@ -27499,7 +27499,7 @@
         <v>16</v>
       </c>
       <c r="H661">
-        <v>29.20291666666937</v>
+        <v>28.975</v>
       </c>
       <c r="I661">
         <v>0</v>
@@ -27522,7 +27522,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>0.2179971</v>
+        <v>0.272496375</v>
       </c>
       <c r="C662">
         <v>41.55125</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="H662">
-        <v>26.45291666666937</v>
+        <v>26.225</v>
       </c>
       <c r="I662">
         <v>0</v>
@@ -27563,7 +27563,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>0.2128095</v>
+        <v>0.266011875</v>
       </c>
       <c r="C663">
         <v>46.18416666666668</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="H663">
-        <v>22.47791666666937</v>
+        <v>22.25</v>
       </c>
       <c r="I663">
         <v>0</v>
@@ -27604,7 +27604,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>0.1993689</v>
+        <v>0.249211125</v>
       </c>
       <c r="C664">
         <v>47.02541666666666</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="H664">
-        <v>22.47791666666937</v>
+        <v>22.25</v>
       </c>
       <c r="I664">
         <v>0</v>
@@ -27645,7 +27645,7 @@
         <v>663</v>
       </c>
       <c r="B665">
-        <v>0.2111589</v>
+        <v>0.263948625</v>
       </c>
       <c r="C665">
         <v>43.59</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="J665">
-        <v>0.2279166666693655</v>
+        <v>0</v>
       </c>
       <c r="K665">
-        <v>49.58708333333064</v>
+        <v>49.815</v>
       </c>
       <c r="L665">
         <v>0</v>
@@ -27686,7 +27686,7 @@
         <v>664</v>
       </c>
       <c r="B666">
-        <v>0.2171718</v>
+        <v>0.27146475</v>
       </c>
       <c r="C666">
         <v>52.72791666666665</v>
@@ -27727,7 +27727,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>0.2152854</v>
+        <v>0.26910675</v>
       </c>
       <c r="C667">
         <v>52.09458333333333</v>
@@ -27768,7 +27768,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>0.2141064</v>
+        <v>0.267633</v>
       </c>
       <c r="C668">
         <v>47.91500000000001</v>
@@ -27809,7 +27809,7 @@
         <v>667</v>
       </c>
       <c r="B669">
-        <v>0.1582218</v>
+        <v>0.19777725</v>
       </c>
       <c r="C669">
         <v>51.36749999999999</v>
@@ -27850,7 +27850,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>0.0437409</v>
+        <v>0.054676125</v>
       </c>
       <c r="C670">
         <v>46.44666666666667</v>
@@ -27891,7 +27891,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>0.037728</v>
+        <v>0.04716000000000001</v>
       </c>
       <c r="C671">
         <v>37.03375</v>
@@ -27932,7 +27932,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>0.0343089</v>
+        <v>0.042886125</v>
       </c>
       <c r="C672">
         <v>29.72708333333334</v>
@@ -27973,7 +27973,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>0.03419099999999999</v>
+        <v>0.04273874999999999</v>
       </c>
       <c r="C673">
         <v>26.52291666666667</v>
@@ -27991,16 +27991,16 @@
         <v>0</v>
       </c>
       <c r="H673">
-        <v>26.275</v>
+        <v>0</v>
       </c>
       <c r="I673">
-        <v>26.275</v>
+        <v>0</v>
       </c>
       <c r="J673">
         <v>0</v>
       </c>
       <c r="K673">
-        <v>74.89791666666667</v>
+        <v>48.62291666666667</v>
       </c>
       <c r="L673">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>0.03419099999999999</v>
+        <v>0.04273874999999999</v>
       </c>
       <c r="C674">
         <v>20.97208333333333</v>
@@ -28032,16 +28032,16 @@
         <v>0</v>
       </c>
       <c r="H674">
-        <v>53.625</v>
+        <v>3.964166666666657</v>
       </c>
       <c r="I674">
-        <v>27.35</v>
+        <v>3.964166666666657</v>
       </c>
       <c r="J674">
         <v>0</v>
       </c>
       <c r="K674">
-        <v>70.09708333333333</v>
+        <v>46.71124999999999</v>
       </c>
       <c r="L674">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>0.03419099999999999</v>
+        <v>0.04273874999999999</v>
       </c>
       <c r="C675">
         <v>24.83083333333333</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="H675">
-        <v>81.3</v>
+        <v>31.63916666666666</v>
       </c>
       <c r="I675">
         <v>27.675</v>
@@ -28096,7 +28096,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>0.03077189999999999</v>
+        <v>0.038464875</v>
       </c>
       <c r="C676">
         <v>26.19416666666667</v>
@@ -28114,7 +28114,7 @@
         <v>16</v>
       </c>
       <c r="H676">
-        <v>78.53083333333333</v>
+        <v>28.86999999999999</v>
       </c>
       <c r="I676">
         <v>0</v>
@@ -28137,7 +28137,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>0.03419099999999999</v>
+        <v>0.04273874999999999</v>
       </c>
       <c r="C677">
         <v>34.13041666666666</v>
@@ -28155,16 +28155,16 @@
         <v>0</v>
       </c>
       <c r="H677">
-        <v>78.53083333333333</v>
+        <v>51.88958333333333</v>
       </c>
       <c r="I677">
-        <v>0</v>
+        <v>23.01958333333334</v>
       </c>
       <c r="J677">
         <v>0</v>
       </c>
       <c r="K677">
-        <v>51.98041666666666</v>
+        <v>75</v>
       </c>
       <c r="L677">
         <v>0</v>
@@ -28178,7 +28178,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>0.03419099999999999</v>
+        <v>0.04273874999999999</v>
       </c>
       <c r="C678">
         <v>26.7075</v>
@@ -28199,13 +28199,13 @@
         <v>79.91458333333333</v>
       </c>
       <c r="I678">
-        <v>1.383749999999992</v>
+        <v>28.025</v>
       </c>
       <c r="J678">
         <v>0</v>
       </c>
       <c r="K678">
-        <v>45.01624999999999</v>
+        <v>71.6575</v>
       </c>
       <c r="L678">
         <v>0</v>
@@ -28219,7 +28219,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>0.03419099999999999</v>
+        <v>0.04273874999999999</v>
       </c>
       <c r="C679">
         <v>33.31458333333333</v>
@@ -28260,7 +28260,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>0.0696789</v>
+        <v>0.087098625</v>
       </c>
       <c r="C680">
         <v>42.91791666666667</v>
@@ -28301,7 +28301,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>0.2260143</v>
+        <v>0.282517875</v>
       </c>
       <c r="C681">
         <v>43.88666666666667</v>
@@ -28342,7 +28342,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>0.2424024</v>
+        <v>0.303003</v>
       </c>
       <c r="C682">
         <v>48.04083333333333</v>
@@ -28383,7 +28383,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>0.2564325</v>
+        <v>0.320540625</v>
       </c>
       <c r="C683">
         <v>39.12041666666667</v>
@@ -28424,7 +28424,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>0.2515986</v>
+        <v>0.3144982499999999</v>
       </c>
       <c r="C684">
         <v>42.17</v>
@@ -28465,7 +28465,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>0.2485332</v>
+        <v>0.3106665</v>
       </c>
       <c r="C685">
         <v>41.17958333333333</v>
@@ -28506,7 +28506,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>0.2361537</v>
+        <v>0.295192125</v>
       </c>
       <c r="C686">
         <v>35.13125000000001</v>
@@ -28547,7 +28547,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>0.2341494</v>
+        <v>0.29268675</v>
       </c>
       <c r="C687">
         <v>38.32375000000001</v>
@@ -28588,7 +28588,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>0.2301408</v>
+        <v>0.287676</v>
       </c>
       <c r="C688">
         <v>43.86041666666667</v>
@@ -28629,7 +28629,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>0.2301408</v>
+        <v>0.287676</v>
       </c>
       <c r="C689">
         <v>43.72833333333334</v>
@@ -28670,7 +28670,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>0.2313198</v>
+        <v>0.28914975</v>
       </c>
       <c r="C690">
         <v>41.56333333333333</v>
@@ -28711,7 +28711,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>0.2342673</v>
+        <v>0.292834125</v>
       </c>
       <c r="C691">
         <v>44.52666666666666</v>
@@ -28752,7 +28752,7 @@
         <v>690</v>
       </c>
       <c r="B692">
-        <v>0.2309661</v>
+        <v>0.288707625</v>
       </c>
       <c r="C692">
         <v>48.97708333333333</v>
@@ -28793,7 +28793,7 @@
         <v>691</v>
       </c>
       <c r="B693">
-        <v>0.2319093</v>
+        <v>0.289886625</v>
       </c>
       <c r="C693">
         <v>51.23333333333334</v>
@@ -28834,7 +28834,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>0.2297871</v>
+        <v>0.287233875</v>
       </c>
       <c r="C694">
         <v>44.5075</v>
@@ -28875,7 +28875,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>0.2260143</v>
+        <v>0.282517875</v>
       </c>
       <c r="C695">
         <v>44.26166666666666</v>
@@ -28916,7 +28916,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>0.2243637</v>
+        <v>0.280454625</v>
       </c>
       <c r="C696">
         <v>30.65750000000001</v>
@@ -28957,7 +28957,7 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>0.2231847</v>
+        <v>0.278980875</v>
       </c>
       <c r="C697">
         <v>33.16749999999999</v>
@@ -28998,7 +28998,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>0.1987794</v>
+        <v>0.24847425</v>
       </c>
       <c r="C698">
         <v>23.77166666666666</v>
@@ -29039,7 +29039,7 @@
         <v>697</v>
       </c>
       <c r="B699">
-        <v>0.2030238</v>
+        <v>0.25377975</v>
       </c>
       <c r="C699">
         <v>25.89416666666666</v>
@@ -29080,7 +29080,7 @@
         <v>698</v>
       </c>
       <c r="B700">
-        <v>0.2079756</v>
+        <v>0.2599695</v>
       </c>
       <c r="C700">
         <v>28.41458333333334</v>
@@ -29121,7 +29121,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>0.2146959</v>
+        <v>0.268369875</v>
       </c>
       <c r="C701">
         <v>33.3425</v>
@@ -29162,7 +29162,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>0.221652</v>
+        <v>0.277065</v>
       </c>
       <c r="C702">
         <v>32.7125</v>
@@ -29203,7 +29203,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>0.2383938</v>
+        <v>0.29799225</v>
       </c>
       <c r="C703">
         <v>38.00291666666666</v>
@@ -29244,7 +29244,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>0.2602053</v>
+        <v>0.325256625</v>
       </c>
       <c r="C704">
         <v>40.80083333333333</v>
@@ -29285,7 +29285,7 @@
         <v>703</v>
       </c>
       <c r="B705">
-        <v>0.2761218</v>
+        <v>0.34515225</v>
       </c>
       <c r="C705">
         <v>44.08458333333333</v>
@@ -29326,7 +29326,7 @@
         <v>704</v>
       </c>
       <c r="B706">
-        <v>0.284139</v>
+        <v>0.3551737500000001</v>
       </c>
       <c r="C706">
         <v>51.74166666666667</v>
@@ -29367,7 +29367,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>0.3160898999999999</v>
+        <v>0.3951123749999999</v>
       </c>
       <c r="C707">
         <v>44.76708333333335</v>
@@ -29408,7 +29408,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>0.3337748999999999</v>
+        <v>0.4172186249999999</v>
       </c>
       <c r="C708">
         <v>40.10791666666667</v>
@@ -29449,7 +29449,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>0.397323</v>
+        <v>0.49665375</v>
       </c>
       <c r="C709">
         <v>39.12083333333333</v>
@@ -29490,7 +29490,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>0.3930786</v>
+        <v>0.49134825</v>
       </c>
       <c r="C710">
         <v>37.34458333333333</v>
@@ -29531,7 +29531,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>0.393786</v>
+        <v>0.4922325</v>
       </c>
       <c r="C711">
         <v>42.64208333333333</v>
@@ -29572,7 +29572,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>0.3927249</v>
+        <v>0.490906125</v>
       </c>
       <c r="C712">
         <v>45.20291666666665</v>
@@ -29613,7 +29613,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>0.3719745</v>
+        <v>0.464968125</v>
       </c>
       <c r="C713">
         <v>39.90416666666666</v>
@@ -29654,7 +29654,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>0.3297663</v>
+        <v>0.4122078749999999</v>
       </c>
       <c r="C714">
         <v>34.17625</v>
@@ -29695,7 +29695,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>0.2899161</v>
+        <v>0.3623951249999999</v>
       </c>
       <c r="C715">
         <v>47.02041666666667</v>
@@ -29736,7 +29736,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>0.2956931999999999</v>
+        <v>0.3696164999999999</v>
       </c>
       <c r="C716">
         <v>61.20833333333333</v>
@@ -29777,7 +29777,7 @@
         <v>715</v>
       </c>
       <c r="B717">
-        <v>0.2896803</v>
+        <v>0.362100375</v>
       </c>
       <c r="C717">
         <v>51.58416666666666</v>
@@ -29818,7 +29818,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>0.2835495</v>
+        <v>0.3544368749999999</v>
       </c>
       <c r="C718">
         <v>47.82333333333335</v>
@@ -29859,7 +29859,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>0.2775366</v>
+        <v>0.3469207499999999</v>
       </c>
       <c r="C719">
         <v>41.82833333333333</v>
@@ -29900,7 +29900,7 @@
         <v>718</v>
       </c>
       <c r="B720">
-        <v>0.2659824</v>
+        <v>0.332478</v>
       </c>
       <c r="C720">
         <v>44.305</v>
@@ -29941,7 +29941,7 @@
         <v>719</v>
       </c>
       <c r="B721">
-        <v>0.2445246</v>
+        <v>0.3056557499999999</v>
       </c>
       <c r="C721">
         <v>34.95833333333334</v>
@@ -29982,7 +29982,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>0.2168181</v>
+        <v>0.271022625</v>
       </c>
       <c r="C722">
         <v>30.56833333333333</v>
@@ -30023,7 +30023,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>0.2176434</v>
+        <v>0.27205425</v>
       </c>
       <c r="C723">
         <v>27.03708333333333</v>
@@ -30064,7 +30064,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>0.218115</v>
+        <v>0.27264375</v>
       </c>
       <c r="C724">
         <v>24.63916666666666</v>
@@ -30105,7 +30105,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>0.2190582</v>
+        <v>0.27382275</v>
       </c>
       <c r="C725">
         <v>33.88208333333334</v>
@@ -30146,7 +30146,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>0.2235384</v>
+        <v>0.279423</v>
       </c>
       <c r="C726">
         <v>27.5425</v>
@@ -30187,7 +30187,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>0.2286081</v>
+        <v>0.285760125</v>
       </c>
       <c r="C727">
         <v>37.90625000000001</v>
@@ -30228,7 +30228,7 @@
         <v>726</v>
       </c>
       <c r="B728">
-        <v>0.2579652</v>
+        <v>0.3224565</v>
       </c>
       <c r="C728">
         <v>41.53375000000001</v>
@@ -30269,7 +30269,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>0.2679867</v>
+        <v>0.334983375</v>
       </c>
       <c r="C729">
         <v>35.46791666666667</v>
@@ -30310,7 +30310,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>0.2738817</v>
+        <v>0.342352125</v>
       </c>
       <c r="C730">
         <v>36.60583333333334</v>
@@ -30351,7 +30351,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>0.2619738</v>
+        <v>0.32746725</v>
       </c>
       <c r="C731">
         <v>32.18791666666667</v>
@@ -30392,7 +30392,7 @@
         <v>730</v>
       </c>
       <c r="B732">
-        <v>0.2406339</v>
+        <v>0.300792375</v>
       </c>
       <c r="C732">
         <v>40.3775</v>
@@ -30433,7 +30433,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>0.2254248</v>
+        <v>0.281781</v>
       </c>
       <c r="C733">
         <v>32.21875000000001</v>
@@ -30474,7 +30474,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>0.2185866</v>
+        <v>0.27323325</v>
       </c>
       <c r="C734">
         <v>28.79625</v>
@@ -30515,7 +30515,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>0.2095083</v>
+        <v>0.261885375</v>
       </c>
       <c r="C735">
         <v>27.95375</v>
@@ -30556,7 +30556,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>0.2007837</v>
+        <v>0.250979625</v>
       </c>
       <c r="C736">
         <v>26.77291666666667</v>
@@ -30597,7 +30597,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>0.1979541</v>
+        <v>0.247442625</v>
       </c>
       <c r="C737">
         <v>30.60125</v>
@@ -30638,7 +30638,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>0.1998405</v>
+        <v>0.249800625</v>
       </c>
       <c r="C738">
         <v>27.31375</v>
@@ -30679,7 +30679,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>0.1967751</v>
+        <v>0.245968875</v>
       </c>
       <c r="C739">
         <v>32.55166666666667</v>
@@ -30720,7 +30720,7 @@
         <v>738</v>
       </c>
       <c r="B740">
-        <v>0.1966572</v>
+        <v>0.2458215</v>
       </c>
       <c r="C740">
         <v>38.74958333333333</v>
@@ -30761,7 +30761,7 @@
         <v>739</v>
       </c>
       <c r="B741">
-        <v>0.1965393</v>
+        <v>0.245674125</v>
       </c>
       <c r="C741">
         <v>42.31375</v>
@@ -30802,7 +30802,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>0.1972467</v>
+        <v>0.246558375</v>
       </c>
       <c r="C742">
         <v>39.6825</v>
@@ -30843,7 +30843,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>0.1983078</v>
+        <v>0.24788475</v>
       </c>
       <c r="C743">
         <v>40.5325</v>
@@ -30884,7 +30884,7 @@
         <v>742</v>
       </c>
       <c r="B744">
-        <v>0.1950066</v>
+        <v>0.24375825</v>
       </c>
       <c r="C744">
         <v>30.07416666666667</v>
@@ -30925,7 +30925,7 @@
         <v>743</v>
       </c>
       <c r="B745">
-        <v>0.1891116</v>
+        <v>0.2363895</v>
       </c>
       <c r="C745">
         <v>25.35458333333333</v>
